--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pantallas" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Computadoras" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Monitores!$B$1:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$B$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scrap!$A$1:$G$16</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="425">
   <si>
     <t>MARCA</t>
   </si>
@@ -78,12 +78,6 @@
     <t>806KCKJK9837</t>
   </si>
   <si>
-    <t>EN CAJA NUEVO</t>
-  </si>
-  <si>
-    <t>DEPÓSITO T4</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>0K3RHNCT700193</t>
   </si>
   <si>
-    <t>EN USO</t>
-  </si>
-  <si>
     <t>Arribos Nacionales</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
     <t>309KCRN58142</t>
   </si>
   <si>
-    <t>DEPOSITO T4</t>
-  </si>
-  <si>
     <t>42WL10M8</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>Z63DHCJC700062F</t>
   </si>
   <si>
-    <t>A REPARAR</t>
-  </si>
-  <si>
     <t>LH40HBSLBC</t>
   </si>
   <si>
@@ -408,9 +393,6 @@
     <t>ZU41H1JBA00196H</t>
   </si>
   <si>
-    <t>FALLA DISPLAY</t>
-  </si>
-  <si>
     <t>T4</t>
   </si>
   <si>
@@ -423,9 +405,6 @@
     <t>027MH9XF900204H</t>
   </si>
   <si>
-    <t>EX SHOP GALLERY</t>
-  </si>
-  <si>
     <t>HB32PS</t>
   </si>
   <si>
@@ -438,9 +417,6 @@
     <t>406KCNL5Z383</t>
   </si>
   <si>
-    <t>EX COC</t>
-  </si>
-  <si>
     <t>SCRAP</t>
   </si>
   <si>
@@ -450,9 +426,6 @@
     <t>Z621HCJC900020M</t>
   </si>
   <si>
-    <t>Gate 7</t>
-  </si>
-  <si>
     <t>Ex diario/FUNCIONA</t>
   </si>
   <si>
@@ -513,15 +486,9 @@
     <t>En uso</t>
   </si>
   <si>
-    <t>6° piso - Inglese</t>
-  </si>
-  <si>
     <t>3G01ZB3</t>
   </si>
   <si>
-    <t>6° piso - Ragusa</t>
-  </si>
-  <si>
     <t>CYN0ZB3</t>
   </si>
   <si>
@@ -534,9 +501,6 @@
     <t>41245L3</t>
   </si>
   <si>
-    <t>En Caja</t>
-  </si>
-  <si>
     <t>Deposito T4</t>
   </si>
   <si>
@@ -588,9 +552,6 @@
     <t>004SPNS92151</t>
   </si>
   <si>
-    <t>Usado</t>
-  </si>
-  <si>
     <t>E1942S</t>
   </si>
   <si>
@@ -657,9 +618,6 @@
     <t>CMKB8D2</t>
   </si>
   <si>
-    <t>cmkbod2</t>
-  </si>
-  <si>
     <t>72LV8D2</t>
   </si>
   <si>
@@ -672,9 +630,6 @@
     <t>029UH9XG513890D</t>
   </si>
   <si>
-    <t>usado</t>
-  </si>
-  <si>
     <t>P2419HC</t>
   </si>
   <si>
@@ -1144,13 +1099,235 @@
   </si>
   <si>
     <t>Pantallas</t>
+  </si>
+  <si>
+    <t>6°to Piso</t>
+  </si>
+  <si>
+    <t>Cinta 5</t>
+  </si>
+  <si>
+    <t>Cinta 3</t>
+  </si>
+  <si>
+    <t>zu41h1jba00185m</t>
+  </si>
+  <si>
+    <t>Cinta 6/ Taxis</t>
+  </si>
+  <si>
+    <t>Gate 6</t>
+  </si>
+  <si>
+    <t>Gate 20</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00008D</t>
+  </si>
+  <si>
+    <t>Entre Gate 2 y 3</t>
+  </si>
+  <si>
+    <t>Totem, al lado de gate 1, construccion sala vip</t>
+  </si>
+  <si>
+    <t>VideoWall Cinta 6</t>
+  </si>
+  <si>
+    <t>Z621HCJC900062A</t>
+  </si>
+  <si>
+    <t>Le Pain</t>
+  </si>
+  <si>
+    <t>Sacada de gate 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL </t>
+  </si>
+  <si>
+    <t>Latitude 5430</t>
+  </si>
+  <si>
+    <t>8DCDKR3</t>
+  </si>
+  <si>
+    <t>San Fernando (Ezequiel Martinez)</t>
+  </si>
+  <si>
+    <t>1TZLKR3</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>J1YLKR3</t>
+  </si>
+  <si>
+    <t>ALDO MARTINO</t>
+  </si>
+  <si>
+    <t>1TFDJR3</t>
+  </si>
+  <si>
+    <t>4BMDJR3</t>
+  </si>
+  <si>
+    <t>7WSDJR3</t>
+  </si>
+  <si>
+    <t>D8CDKR3</t>
+  </si>
+  <si>
+    <t>GXXLKR3</t>
+  </si>
+  <si>
+    <t>H9CDKR3</t>
+  </si>
+  <si>
+    <t>DR5DKR3</t>
+  </si>
+  <si>
+    <t>HJCDKR5</t>
+  </si>
+  <si>
+    <t>HKFDJR3</t>
+  </si>
+  <si>
+    <t>J8MDJR3</t>
+  </si>
+  <si>
+    <t>JZHGKR3</t>
+  </si>
+  <si>
+    <t>HKSDJR3</t>
+  </si>
+  <si>
+    <t>CLFDJR3</t>
+  </si>
+  <si>
+    <t>CN2DJR3</t>
+  </si>
+  <si>
+    <t>758DJR3</t>
+  </si>
+  <si>
+    <t>9VSDJR3</t>
+  </si>
+  <si>
+    <t>BVSDJR3</t>
+  </si>
+  <si>
+    <t>Latitude 7420</t>
+  </si>
+  <si>
+    <t>FJLJ7M3</t>
+  </si>
+  <si>
+    <t>937J7M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK SIN CARGADOR </t>
+  </si>
+  <si>
+    <t>64YLKR3</t>
+  </si>
+  <si>
+    <t>Vino de HONDURAS</t>
+  </si>
+  <si>
+    <t>DQFDJR3</t>
+  </si>
+  <si>
+    <t>Felipe Azpiri / Vino de Honduras</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Compaq 2400</t>
+  </si>
+  <si>
+    <t>MXL9460GP4</t>
+  </si>
+  <si>
+    <t>Vectra VE</t>
+  </si>
+  <si>
+    <t>BCHE85105976</t>
+  </si>
+  <si>
+    <t>TECLADO</t>
+  </si>
+  <si>
+    <t>CABLE</t>
+  </si>
+  <si>
+    <t>Compaq DC5850 MT</t>
+  </si>
+  <si>
+    <t>MXJ82305HK</t>
+  </si>
+  <si>
+    <t>Compaq 6000 pro MT</t>
+  </si>
+  <si>
+    <t>BRG0TOFCQ8</t>
+  </si>
+  <si>
+    <t>Cavioli SAP 2023</t>
+  </si>
+  <si>
+    <t>Compaq Elite 8300 CMT</t>
+  </si>
+  <si>
+    <t>MXL3381WX4</t>
+  </si>
+  <si>
+    <t>COC 08/2023</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>BANGHO</t>
+  </si>
+  <si>
+    <t>CUBIC A02</t>
+  </si>
+  <si>
+    <t>S/D</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
+  </si>
+  <si>
+    <t>19EN33</t>
+  </si>
+  <si>
+    <t>403NSNSOG031</t>
+  </si>
+  <si>
+    <t>RMA</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Notebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,8 +1379,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,8 +1452,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1318,11 +1559,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,11 +1700,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1666,13 +2056,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1712,9 +2102,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -1726,125 +2116,125 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -1853,172 +2243,172 @@
         <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11">
         <v>43</v>
@@ -2026,25 +2416,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11">
         <v>55</v>
@@ -2052,25 +2442,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="14">
         <v>40</v>
@@ -2078,25 +2468,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="14">
         <v>40</v>
@@ -2104,25 +2494,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="14">
         <v>40</v>
@@ -2130,25 +2520,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="14">
         <v>40</v>
@@ -2156,25 +2546,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="14">
         <v>40</v>
@@ -2182,25 +2572,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="14">
         <v>32</v>
@@ -2208,25 +2598,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="14">
         <v>32</v>
@@ -2234,25 +2624,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>11</v>
+      <c r="E22" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="14">
         <v>32</v>
@@ -2260,25 +2650,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="14">
         <v>32</v>
@@ -2286,25 +2676,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="14">
         <v>32</v>
@@ -2312,25 +2702,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="14">
         <v>32</v>
@@ -2338,25 +2728,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="14">
         <v>40</v>
@@ -2364,25 +2754,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="14">
         <v>32</v>
@@ -2390,25 +2780,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="14">
         <v>40</v>
@@ -2416,25 +2806,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29" s="14">
         <v>32</v>
@@ -2442,25 +2832,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="14">
         <v>43</v>
@@ -2468,25 +2858,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="14">
         <v>43</v>
@@ -2494,25 +2884,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="H32" s="14">
         <v>40</v>
@@ -2520,25 +2910,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="14">
         <v>42</v>
@@ -2546,25 +2936,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>423</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="14">
         <v>42</v>
@@ -2572,25 +2962,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="14">
         <v>40</v>
@@ -2598,25 +2988,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="14">
         <v>40</v>
@@ -2624,25 +3014,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="14">
         <v>40</v>
@@ -2650,25 +3040,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H38" s="14">
         <v>32</v>
@@ -2676,25 +3066,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>11</v>
+      <c r="E39" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H39" s="14">
         <v>32</v>
@@ -2702,25 +3092,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="14">
         <v>49</v>
@@ -2728,25 +3118,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="14">
         <v>65</v>
@@ -2754,25 +3144,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="14">
         <v>40</v>
@@ -2780,25 +3170,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>11</v>
+        <v>145</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H43" s="14">
         <v>40</v>
@@ -2806,25 +3196,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" s="14">
         <v>55</v>
@@ -2832,25 +3222,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H45" s="14">
         <v>88</v>
@@ -2858,73 +3248,73 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="15">
         <v>40</v>
@@ -2932,25 +3322,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="15">
         <v>43</v>
@@ -2958,25 +3348,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="15">
         <v>46</v>
@@ -2984,25 +3374,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="15">
         <v>88</v>
@@ -3010,25 +3400,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" s="15">
         <v>55</v>
@@ -3036,25 +3426,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="15">
         <v>46</v>
@@ -3062,25 +3452,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="15">
         <v>42</v>
@@ -3088,25 +3478,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="15">
         <v>42</v>
@@ -3114,25 +3504,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>98</v>
+        <v>423</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="15">
         <v>40</v>
@@ -3140,25 +3530,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>98</v>
+        <v>423</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="15">
         <v>42</v>
@@ -3166,25 +3556,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="E58" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>98</v>
+        <v>423</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="15">
         <v>40</v>
@@ -3192,25 +3582,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="15">
         <v>46</v>
@@ -3218,25 +3608,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H60" s="15">
         <v>40</v>
@@ -3244,25 +3634,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="H61" s="15">
         <v>40</v>
@@ -3270,51 +3660,51 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="15">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>98</v>
+        <v>420</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="15">
         <v>46</v>
@@ -3322,405 +3712,517 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>11</v>
+        <v>112</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H64" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>120</v>
+        <v>422</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="15"/>
+        <v>120</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>423</v>
+      </c>
       <c r="F68" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>423</v>
+      </c>
       <c r="F69" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>130</v>
+        <v>422</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H70" s="15">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>11</v>
+        <v>145</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H71" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>11</v>
+        <v>127</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H72" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>11</v>
+        <v>129</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H73" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="H74" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H75" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H76" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>11</v>
+        <v>135</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H77" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>11</v>
+        <v>136</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H78" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H79" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H80" s="15">
         <v>46</v>
       </c>
     </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="H81" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="H82" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="H83" s="17">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:G70"/>
+  <autoFilter ref="B1:G83">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="USADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3728,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,9 +4242,9 @@
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3766,53 +4268,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H3" s="3">
         <v>24</v>
@@ -3820,25 +4322,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="3">
         <v>24</v>
@@ -3846,25 +4348,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" s="3">
         <v>24</v>
@@ -3872,25 +4374,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="3">
         <v>24</v>
@@ -3898,25 +4400,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="3">
         <v>24</v>
@@ -3924,25 +4426,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="3">
         <v>24</v>
@@ -3950,25 +4452,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3">
         <v>24</v>
@@ -3976,25 +4478,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="3">
         <v>24</v>
@@ -4002,25 +4504,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3">
         <v>24</v>
@@ -4028,25 +4530,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3">
         <v>24</v>
@@ -4054,25 +4556,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3">
         <v>24</v>
@@ -4080,25 +4582,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3">
         <v>24</v>
@@ -4106,25 +4608,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3">
         <v>24</v>
@@ -4132,25 +4634,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" s="3">
         <v>24</v>
@@ -4158,25 +4660,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>20</v>
@@ -4184,25 +4686,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>19</v>
@@ -4210,25 +4712,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>17</v>
@@ -4236,25 +4738,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>19</v>
@@ -4262,25 +4764,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
         <v>19</v>
@@ -4288,25 +4790,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>17</v>
@@ -4314,25 +4816,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
         <v>19</v>
@@ -4340,25 +4842,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <v>19</v>
@@ -4366,25 +4868,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>19</v>
@@ -4392,25 +4894,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <v>19</v>
@@ -4418,25 +4920,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H27" s="3">
         <v>19</v>
@@ -4444,25 +4946,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H28" s="3">
         <v>19</v>
@@ -4470,25 +4972,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H29" s="3">
         <v>19</v>
@@ -4496,25 +4998,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H30" s="3">
         <v>19</v>
@@ -4522,25 +5024,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>208</v>
+        <v>423</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H31" s="3">
         <v>19</v>
@@ -4548,25 +5050,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>24</v>
@@ -4574,25 +5076,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>24</v>
@@ -4600,25 +5102,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
         <v>17</v>
@@ -4626,25 +5128,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
         <v>19</v>
@@ -4652,25 +5154,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
         <v>17</v>
@@ -4678,25 +5180,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>17</v>
@@ -4704,25 +5206,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H38" s="3">
         <v>17</v>
@@ -4730,25 +5232,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H39" s="3">
         <v>17</v>
@@ -4756,25 +5258,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
         <v>17</v>
@@ -4782,25 +5284,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
         <v>19</v>
@@ -4808,25 +5310,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H42" s="3">
         <v>19</v>
@@ -4834,25 +5336,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>19</v>
@@ -4866,24 +5368,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4909,25 +5411,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H2" s="3">
         <v>32</v>
@@ -4935,25 +5437,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H3" s="3">
         <v>40</v>
@@ -4961,25 +5463,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -4987,25 +5489,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H5" s="3">
         <v>46</v>
@@ -5013,25 +5515,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H6" s="3">
         <v>46</v>
@@ -5039,25 +5541,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H7" s="3">
         <v>46</v>
@@ -5065,25 +5567,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -5091,25 +5593,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H9" s="3">
         <v>42</v>
@@ -5117,25 +5619,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H10" s="3">
         <v>42</v>
@@ -5143,25 +5645,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -5169,25 +5671,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H12" s="3">
         <v>43</v>
@@ -5195,25 +5697,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H13" s="3">
         <v>43</v>
@@ -5221,25 +5723,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H14" s="3">
         <v>40</v>
@@ -5247,25 +5749,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H15" s="3">
         <v>40</v>
@@ -5273,25 +5775,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H16" s="3">
         <v>88</v>
@@ -5299,28 +5801,225 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3">
         <v>43</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="42"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16"/>
+  <conditionalFormatting sqref="E18:E24 C18:C24 E26 C26">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 C25">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5330,7 +6029,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,7 +6045,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5369,278 +6068,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5651,10 +6350,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,12 +6364,13 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -5690,1534 +6391,2109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E14" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E15" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E16" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="E17" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E18" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E19" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E20" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="E21" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E22" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E23" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="E24" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="E25" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E26" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E27" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E28" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="E29" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E30" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="E31" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="E32" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="E33" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="E34" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="E35" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="E36" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="E37" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="E38" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="E39" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="E40" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="G40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="E41" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="G41" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="E42" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="G42" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="E43" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="G43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="E44" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G44" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="E45" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="G45" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="E46" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="G46" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="E47" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="G47" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="E48" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G48" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="E49" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G52" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G54" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="G66" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="D67" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="G67" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="H90">
+        <v>467537</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G91" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G67"/>
+  <autoFilter ref="B1:G91">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="En uso"/>
+        <filter val="USADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7392,19 +8668,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7429,9 +8701,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Pantallas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Monitores!$B$1:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$B$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scrap!$A$1:$G$16</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="426">
   <si>
     <t>MARCA</t>
   </si>
@@ -282,15 +282,9 @@
     <t>907KCPYP7512</t>
   </si>
   <si>
-    <t>400UXN-3</t>
-  </si>
-  <si>
     <t>ZU41H1JBA00071V</t>
   </si>
   <si>
-    <t>Puesto de diarios</t>
-  </si>
-  <si>
     <t>M413CCBA</t>
   </si>
   <si>
@@ -1321,6 +1315,15 @@
   </si>
   <si>
     <t>Notebook</t>
+  </si>
+  <si>
+    <t>Z621HCJC700003F</t>
+  </si>
+  <si>
+    <t>Ex ORSNA</t>
+  </si>
+  <si>
+    <t>Ex puesto de diarios</t>
   </si>
 </sst>
 </file>
@@ -2059,10 +2062,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E64"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2081,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2116,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>10</v>
@@ -2130,7 +2133,7 @@
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -2142,10 +2145,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>10</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -2168,10 +2171,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>10</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -2194,10 +2197,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>10</v>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2220,10 +2223,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>10</v>
@@ -2234,7 +2237,7 @@
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -2246,10 +2249,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>10</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -2272,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>10</v>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -2298,10 +2301,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>10</v>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -2324,7 +2327,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>22</v>
@@ -2338,7 +2341,7 @@
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -2350,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>22</v>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2376,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>22</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -2402,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>22</v>
@@ -2414,9 +2417,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -2428,10 +2431,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>10</v>
@@ -2440,9 +2443,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>19</v>
@@ -2454,10 +2457,10 @@
         <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>10</v>
@@ -2466,9 +2469,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>19</v>
@@ -2480,10 +2483,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
@@ -2492,9 +2495,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
@@ -2506,10 +2509,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>10</v>
@@ -2518,9 +2521,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -2532,10 +2535,10 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>10</v>
@@ -2544,9 +2547,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
@@ -2558,10 +2561,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>10</v>
@@ -2570,9 +2573,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>19</v>
@@ -2584,10 +2587,10 @@
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>10</v>
@@ -2596,9 +2599,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>19</v>
@@ -2610,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>10</v>
@@ -2622,9 +2625,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -2636,10 +2639,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>10</v>
@@ -2648,9 +2651,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>19</v>
@@ -2662,10 +2665,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>10</v>
@@ -2674,9 +2677,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -2688,10 +2691,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>10</v>
@@ -2700,9 +2703,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2714,10 +2717,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>10</v>
@@ -2726,9 +2729,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>19</v>
@@ -2740,10 +2743,10 @@
         <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>10</v>
@@ -2752,9 +2755,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>19</v>
@@ -2766,10 +2769,10 @@
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>10</v>
@@ -2778,9 +2781,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>19</v>
@@ -2792,10 +2795,10 @@
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>10</v>
@@ -2804,9 +2807,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>19</v>
@@ -2818,10 +2821,10 @@
         <v>46</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>47</v>
@@ -2830,9 +2833,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
@@ -2844,10 +2847,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>10</v>
@@ -2856,9 +2859,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -2870,10 +2873,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>10</v>
@@ -2882,9 +2885,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -2896,7 +2899,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>53</v>
@@ -2908,9 +2911,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
@@ -2922,10 +2925,10 @@
         <v>56</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>10</v>
@@ -2934,9 +2937,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
@@ -2948,7 +2951,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>59</v>
@@ -2960,9 +2963,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>19</v>
@@ -2974,10 +2977,10 @@
         <v>60</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>10</v>
@@ -2986,9 +2989,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>19</v>
@@ -3000,10 +3003,10 @@
         <v>61</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>10</v>
@@ -3012,9 +3015,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>19</v>
@@ -3026,10 +3029,10 @@
         <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>10</v>
@@ -3038,9 +3041,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>19</v>
@@ -3052,10 +3055,10 @@
         <v>64</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>65</v>
@@ -3064,9 +3067,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>19</v>
@@ -3078,10 +3081,10 @@
         <v>66</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>65</v>
@@ -3090,9 +3093,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
@@ -3104,10 +3107,10 @@
         <v>68</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>10</v>
@@ -3116,9 +3119,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>19</v>
@@ -3130,10 +3133,10 @@
         <v>70</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>10</v>
@@ -3142,9 +3145,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>19</v>
@@ -3156,10 +3159,10 @@
         <v>71</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>10</v>
@@ -3168,9 +3171,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>19</v>
@@ -3182,10 +3185,10 @@
         <v>72</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>73</v>
@@ -3194,9 +3197,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
@@ -3208,10 +3211,10 @@
         <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>10</v>
@@ -3220,9 +3223,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
@@ -3234,10 +3237,10 @@
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>28</v>
@@ -3248,55 +3251,55 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="E46" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>10</v>
+        <v>425</v>
       </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>19</v>
@@ -3305,13 +3308,13 @@
         <v>29</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>10</v>
@@ -3320,24 +3323,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>10</v>
@@ -3346,24 +3349,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>10</v>
@@ -3372,9 +3375,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -3383,13 +3386,13 @@
         <v>76</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>10</v>
@@ -3398,24 +3401,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>10</v>
@@ -3424,24 +3427,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>10</v>
@@ -3450,24 +3453,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>10</v>
@@ -3476,24 +3479,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>10</v>
@@ -3502,24 +3505,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>10</v>
@@ -3528,24 +3531,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>10</v>
@@ -3554,24 +3557,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>10</v>
@@ -3580,24 +3583,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>10</v>
@@ -3606,76 +3609,76 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="H60" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H61" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>10</v>
@@ -3686,22 +3689,22 @@
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>10</v>
@@ -3710,27 +3713,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="H64" s="15">
         <v>40</v>
@@ -3738,22 +3741,22 @@
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15">
@@ -3762,42 +3765,42 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16">
@@ -3806,22 +3809,22 @@
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15">
@@ -3830,22 +3833,22 @@
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15">
@@ -3854,25 +3857,25 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H70" s="15">
         <v>42</v>
@@ -3880,25 +3883,25 @@
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="H71" s="15">
         <v>40</v>
@@ -3906,25 +3909,25 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H72" s="15">
         <v>40</v>
@@ -3932,25 +3935,25 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H73" s="15">
         <v>40</v>
@@ -3958,25 +3961,25 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H74" s="15">
         <v>40</v>
@@ -3984,25 +3987,25 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H75" s="15">
         <v>40</v>
@@ -4010,25 +4013,25 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H76" s="15">
         <v>40</v>
@@ -4036,25 +4039,25 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H77" s="15">
         <v>40</v>
@@ -4062,25 +4065,25 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H78" s="15">
         <v>40</v>
@@ -4088,25 +4091,25 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H79" s="15">
         <v>40</v>
@@ -4114,25 +4117,25 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="G80" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="H80" s="15">
         <v>46</v>
@@ -4140,22 +4143,22 @@
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H81" s="24">
         <v>40</v>
@@ -4163,25 +4166,25 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>358</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>360</v>
       </c>
       <c r="H82" s="25">
         <v>40</v>
@@ -4189,35 +4192,61 @@
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>362</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="H83" s="17">
         <v>40</v>
       </c>
     </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="H84" s="17">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:G83">
-    <filterColumn colId="3">
+  <autoFilter ref="B1:G84">
+    <filterColumn colId="2">
       <filters>
-        <filter val="USADA"/>
+        <filter val="ZU41H1JBA00071V"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4230,7 +4259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4244,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4270,25 +4299,25 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F2" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="3">
         <v>24</v>
@@ -4296,25 +4325,25 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3">
         <v>24</v>
@@ -4322,25 +4351,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3">
         <v>24</v>
@@ -4348,25 +4377,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3">
         <v>24</v>
@@ -4374,25 +4403,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
         <v>24</v>
@@ -4400,25 +4429,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="H7" s="3">
         <v>24</v>
@@ -4426,25 +4455,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="3">
         <v>24</v>
@@ -4452,25 +4481,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="3">
         <v>24</v>
@@ -4478,25 +4507,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3">
         <v>24</v>
@@ -4504,25 +4533,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H11" s="3">
         <v>24</v>
@@ -4530,25 +4559,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3">
         <v>24</v>
@@ -4556,25 +4585,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="3">
         <v>24</v>
@@ -4582,25 +4611,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3">
         <v>24</v>
@@ -4608,19 +4637,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>59</v>
@@ -4634,19 +4663,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>59</v>
@@ -4660,22 +4689,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
@@ -4686,22 +4715,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
@@ -4712,22 +4741,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>10</v>
@@ -4738,22 +4767,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>10</v>
@@ -4764,22 +4793,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
@@ -4790,22 +4819,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -4816,22 +4845,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -4842,22 +4871,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -4868,22 +4897,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -4894,22 +4923,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
@@ -4920,25 +4949,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" s="3">
         <v>19</v>
@@ -4946,25 +4975,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H28" s="3">
         <v>19</v>
@@ -4972,25 +5001,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H29" s="3">
         <v>19</v>
@@ -4998,25 +5027,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H30" s="3">
         <v>19</v>
@@ -5024,25 +5053,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="3">
         <v>19</v>
@@ -5050,22 +5079,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
@@ -5076,22 +5105,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>10</v>
@@ -5102,22 +5131,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>10</v>
@@ -5128,22 +5157,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>10</v>
@@ -5154,22 +5183,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>10</v>
@@ -5180,22 +5209,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>10</v>
@@ -5206,25 +5235,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="3">
         <v>17</v>
@@ -5232,25 +5261,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H39" s="3">
         <v>17</v>
@@ -5258,22 +5287,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>10</v>
@@ -5284,22 +5313,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
@@ -5310,25 +5339,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H42" s="3">
         <v>19</v>
@@ -5336,22 +5365,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
@@ -5385,7 +5414,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5411,25 +5440,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3">
         <v>32</v>
@@ -5437,25 +5466,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3" s="3">
         <v>40</v>
@@ -5463,25 +5492,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -5489,25 +5518,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" s="3">
         <v>46</v>
@@ -5515,25 +5544,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6" s="3">
         <v>46</v>
@@ -5541,25 +5570,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="3">
         <v>46</v>
@@ -5567,25 +5596,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -5593,25 +5622,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3">
         <v>42</v>
@@ -5619,25 +5648,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10" s="3">
         <v>42</v>
@@ -5645,25 +5674,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -5671,25 +5700,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H12" s="3">
         <v>43</v>
@@ -5697,25 +5726,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H13" s="3">
         <v>43</v>
@@ -5723,25 +5752,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H14" s="3">
         <v>40</v>
@@ -5749,25 +5778,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H15" s="3">
         <v>40</v>
@@ -5775,7 +5804,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -5784,16 +5813,16 @@
         <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H16" s="3">
         <v>88</v>
@@ -5801,20 +5830,20 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3">
@@ -5823,192 +5852,192 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>400</v>
-      </c>
       <c r="D18" s="41" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="46" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D22" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>407</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D23" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>410</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>415</v>
-      </c>
       <c r="E24" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>415</v>
-      </c>
       <c r="E25" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H26" s="42"/>
     </row>
@@ -6045,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6068,278 +6097,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6370,7 +6399,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -6393,22 +6422,22 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
@@ -6416,22 +6445,22 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
@@ -6439,22 +6468,22 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -6462,22 +6491,22 @@
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
@@ -6485,22 +6514,22 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
@@ -6508,22 +6537,22 @@
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
@@ -6531,22 +6560,22 @@
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>10</v>
@@ -6554,22 +6583,22 @@
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>10</v>
@@ -6577,22 +6606,22 @@
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
@@ -6600,22 +6629,22 @@
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -6623,22 +6652,22 @@
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>10</v>
@@ -6646,22 +6675,22 @@
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -6669,22 +6698,22 @@
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -6692,22 +6721,22 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>10</v>
@@ -6715,22 +6744,22 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>10</v>
@@ -6738,22 +6767,22 @@
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
@@ -6761,22 +6790,22 @@
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>10</v>
@@ -6784,22 +6813,22 @@
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>10</v>
@@ -6807,22 +6836,22 @@
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>10</v>
@@ -6830,22 +6859,22 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>10</v>
@@ -6853,22 +6882,22 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>10</v>
@@ -6876,22 +6905,22 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>10</v>
@@ -6899,22 +6928,22 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>10</v>
@@ -6922,22 +6951,22 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -6945,22 +6974,22 @@
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>10</v>
@@ -6968,22 +6997,22 @@
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
@@ -6991,22 +7020,22 @@
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>10</v>
@@ -7014,22 +7043,22 @@
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>10</v>
@@ -7037,22 +7066,22 @@
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>10</v>
@@ -7060,22 +7089,22 @@
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>10</v>
@@ -7083,22 +7112,22 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>10</v>
@@ -7106,22 +7135,22 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>10</v>
@@ -7129,22 +7158,22 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>10</v>
@@ -7152,22 +7181,22 @@
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>10</v>
@@ -7175,22 +7204,22 @@
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>10</v>
@@ -7198,22 +7227,22 @@
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>10</v>
@@ -7221,22 +7250,22 @@
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>10</v>
@@ -7244,22 +7273,22 @@
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>10</v>
@@ -7267,22 +7296,22 @@
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>10</v>
@@ -7290,22 +7319,22 @@
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>10</v>
@@ -7313,22 +7342,22 @@
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>10</v>
@@ -7336,22 +7365,22 @@
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>10</v>
@@ -7359,22 +7388,22 @@
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>10</v>
@@ -7382,22 +7411,22 @@
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>10</v>
@@ -7405,22 +7434,22 @@
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>10</v>
@@ -7428,22 +7457,22 @@
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>10</v>
@@ -7451,22 +7480,22 @@
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>10</v>
@@ -7474,22 +7503,22 @@
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>10</v>
@@ -7497,344 +7526,344 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>10</v>
@@ -7842,22 +7871,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>10</v>
@@ -7865,22 +7894,22 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>10</v>
@@ -7888,22 +7917,22 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>10</v>
@@ -7911,100 +7940,100 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="E68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="31" t="s">
         <v>366</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>10</v>
@@ -8012,22 +8041,22 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G72" s="30" t="s">
         <v>10</v>
@@ -8035,22 +8064,22 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>10</v>
@@ -8058,22 +8087,22 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>10</v>
@@ -8081,45 +8110,45 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>10</v>
@@ -8127,22 +8156,22 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>10</v>
@@ -8150,22 +8179,22 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>10</v>
@@ -8173,22 +8202,22 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>10</v>
@@ -8196,22 +8225,22 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G80" s="30" t="s">
         <v>10</v>
@@ -8219,22 +8248,22 @@
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G81" s="30" t="s">
         <v>10</v>
@@ -8242,22 +8271,22 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G82" s="30" t="s">
         <v>10</v>
@@ -8265,22 +8294,22 @@
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G83" s="30" t="s">
         <v>10</v>
@@ -8288,22 +8317,22 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G84" s="30" t="s">
         <v>10</v>
@@ -8311,22 +8340,22 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G85" s="30" t="s">
         <v>10</v>
@@ -8334,22 +8363,22 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G86" s="30" t="s">
         <v>10</v>
@@ -8357,22 +8386,22 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G87" s="30" t="s">
         <v>10</v>
@@ -8380,97 +8409,97 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C89" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D89" s="33" t="s">
-        <v>392</v>
-      </c>
       <c r="E89" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H90">
         <v>467537</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F91" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G91" s="38"/>
     </row>
@@ -8488,15 +8517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2A1AE458063C741842AB8EBBE581ED2" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6990e09a7d95d09e232da40966901d8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c32e03e6-ef0c-4686-b9d5-20fc79c6df97" xmlns:ns3="99002f19-2ef4-4d9e-9452-8bd5a4ecb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bb373c89002af6c0dcfca5685bb9bb1" ns2:_="" ns3:_="">
     <xsd:import namespace="c32e03e6-ef0c-4686-b9d5-20fc79c6df97"/>
@@ -8667,6 +8687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8674,14 +8703,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85789E10-5C9A-4B83-9401-5ECFE6D45DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8700,6 +8721,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>

--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
     <sheet name="Computadoras" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Monitores!$B$1:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$B$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scrap!$A$1:$G$16</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="426">
   <si>
     <t>MARCA</t>
   </si>
@@ -78,12 +78,6 @@
     <t>806KCKJK9837</t>
   </si>
   <si>
-    <t>EN CAJA NUEVO</t>
-  </si>
-  <si>
-    <t>DEPÓSITO T4</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>0K3RHNCT700193</t>
   </si>
   <si>
-    <t>EN USO</t>
-  </si>
-  <si>
     <t>Arribos Nacionales</t>
   </si>
   <si>
@@ -291,15 +282,9 @@
     <t>907KCPYP7512</t>
   </si>
   <si>
-    <t>400UXN-3</t>
-  </si>
-  <si>
     <t>ZU41H1JBA00071V</t>
   </si>
   <si>
-    <t>Puesto de diarios</t>
-  </si>
-  <si>
     <t>M413CCBA</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
     <t>309KCRN58142</t>
   </si>
   <si>
-    <t>DEPOSITO T4</t>
-  </si>
-  <si>
     <t>42WL10M8</t>
   </si>
   <si>
@@ -393,9 +375,6 @@
     <t>Z63DHCJC700062F</t>
   </si>
   <si>
-    <t>A REPARAR</t>
-  </si>
-  <si>
     <t>LH40HBSLBC</t>
   </si>
   <si>
@@ -408,9 +387,6 @@
     <t>ZU41H1JBA00196H</t>
   </si>
   <si>
-    <t>FALLA DISPLAY</t>
-  </si>
-  <si>
     <t>T4</t>
   </si>
   <si>
@@ -423,9 +399,6 @@
     <t>027MH9XF900204H</t>
   </si>
   <si>
-    <t>EX SHOP GALLERY</t>
-  </si>
-  <si>
     <t>HB32PS</t>
   </si>
   <si>
@@ -438,9 +411,6 @@
     <t>406KCNL5Z383</t>
   </si>
   <si>
-    <t>EX COC</t>
-  </si>
-  <si>
     <t>SCRAP</t>
   </si>
   <si>
@@ -450,9 +420,6 @@
     <t>Z621HCJC900020M</t>
   </si>
   <si>
-    <t>Gate 7</t>
-  </si>
-  <si>
     <t>Ex diario/FUNCIONA</t>
   </si>
   <si>
@@ -513,15 +480,9 @@
     <t>En uso</t>
   </si>
   <si>
-    <t>6° piso - Inglese</t>
-  </si>
-  <si>
     <t>3G01ZB3</t>
   </si>
   <si>
-    <t>6° piso - Ragusa</t>
-  </si>
-  <si>
     <t>CYN0ZB3</t>
   </si>
   <si>
@@ -534,9 +495,6 @@
     <t>41245L3</t>
   </si>
   <si>
-    <t>En Caja</t>
-  </si>
-  <si>
     <t>Deposito T4</t>
   </si>
   <si>
@@ -588,9 +546,6 @@
     <t>004SPNS92151</t>
   </si>
   <si>
-    <t>Usado</t>
-  </si>
-  <si>
     <t>E1942S</t>
   </si>
   <si>
@@ -657,9 +612,6 @@
     <t>CMKB8D2</t>
   </si>
   <si>
-    <t>cmkbod2</t>
-  </si>
-  <si>
     <t>72LV8D2</t>
   </si>
   <si>
@@ -672,9 +624,6 @@
     <t>029UH9XG513890D</t>
   </si>
   <si>
-    <t>usado</t>
-  </si>
-  <si>
     <t>P2419HC</t>
   </si>
   <si>
@@ -1144,13 +1093,244 @@
   </si>
   <si>
     <t>Pantallas</t>
+  </si>
+  <si>
+    <t>6°to Piso</t>
+  </si>
+  <si>
+    <t>Cinta 5</t>
+  </si>
+  <si>
+    <t>Cinta 3</t>
+  </si>
+  <si>
+    <t>zu41h1jba00185m</t>
+  </si>
+  <si>
+    <t>Cinta 6/ Taxis</t>
+  </si>
+  <si>
+    <t>Gate 6</t>
+  </si>
+  <si>
+    <t>Gate 20</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00008D</t>
+  </si>
+  <si>
+    <t>Entre Gate 2 y 3</t>
+  </si>
+  <si>
+    <t>Totem, al lado de gate 1, construccion sala vip</t>
+  </si>
+  <si>
+    <t>VideoWall Cinta 6</t>
+  </si>
+  <si>
+    <t>Z621HCJC900062A</t>
+  </si>
+  <si>
+    <t>Le Pain</t>
+  </si>
+  <si>
+    <t>Sacada de gate 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL </t>
+  </si>
+  <si>
+    <t>Latitude 5430</t>
+  </si>
+  <si>
+    <t>8DCDKR3</t>
+  </si>
+  <si>
+    <t>San Fernando (Ezequiel Martinez)</t>
+  </si>
+  <si>
+    <t>1TZLKR3</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>J1YLKR3</t>
+  </si>
+  <si>
+    <t>ALDO MARTINO</t>
+  </si>
+  <si>
+    <t>1TFDJR3</t>
+  </si>
+  <si>
+    <t>4BMDJR3</t>
+  </si>
+  <si>
+    <t>7WSDJR3</t>
+  </si>
+  <si>
+    <t>D8CDKR3</t>
+  </si>
+  <si>
+    <t>GXXLKR3</t>
+  </si>
+  <si>
+    <t>H9CDKR3</t>
+  </si>
+  <si>
+    <t>DR5DKR3</t>
+  </si>
+  <si>
+    <t>HJCDKR5</t>
+  </si>
+  <si>
+    <t>HKFDJR3</t>
+  </si>
+  <si>
+    <t>J8MDJR3</t>
+  </si>
+  <si>
+    <t>JZHGKR3</t>
+  </si>
+  <si>
+    <t>HKSDJR3</t>
+  </si>
+  <si>
+    <t>CLFDJR3</t>
+  </si>
+  <si>
+    <t>CN2DJR3</t>
+  </si>
+  <si>
+    <t>758DJR3</t>
+  </si>
+  <si>
+    <t>9VSDJR3</t>
+  </si>
+  <si>
+    <t>BVSDJR3</t>
+  </si>
+  <si>
+    <t>Latitude 7420</t>
+  </si>
+  <si>
+    <t>FJLJ7M3</t>
+  </si>
+  <si>
+    <t>937J7M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK SIN CARGADOR </t>
+  </si>
+  <si>
+    <t>64YLKR3</t>
+  </si>
+  <si>
+    <t>Vino de HONDURAS</t>
+  </si>
+  <si>
+    <t>DQFDJR3</t>
+  </si>
+  <si>
+    <t>Felipe Azpiri / Vino de Honduras</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Compaq 2400</t>
+  </si>
+  <si>
+    <t>MXL9460GP4</t>
+  </si>
+  <si>
+    <t>Vectra VE</t>
+  </si>
+  <si>
+    <t>BCHE85105976</t>
+  </si>
+  <si>
+    <t>TECLADO</t>
+  </si>
+  <si>
+    <t>CABLE</t>
+  </si>
+  <si>
+    <t>Compaq DC5850 MT</t>
+  </si>
+  <si>
+    <t>MXJ82305HK</t>
+  </si>
+  <si>
+    <t>Compaq 6000 pro MT</t>
+  </si>
+  <si>
+    <t>BRG0TOFCQ8</t>
+  </si>
+  <si>
+    <t>Cavioli SAP 2023</t>
+  </si>
+  <si>
+    <t>Compaq Elite 8300 CMT</t>
+  </si>
+  <si>
+    <t>MXL3381WX4</t>
+  </si>
+  <si>
+    <t>COC 08/2023</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>BANGHO</t>
+  </si>
+  <si>
+    <t>CUBIC A02</t>
+  </si>
+  <si>
+    <t>S/D</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
+  </si>
+  <si>
+    <t>19EN33</t>
+  </si>
+  <si>
+    <t>403NSNSOG031</t>
+  </si>
+  <si>
+    <t>RMA</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Z621HCJC700003F</t>
+  </si>
+  <si>
+    <t>Ex ORSNA</t>
+  </si>
+  <si>
+    <t>Ex puesto de diarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,8 +1382,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,8 +1455,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1318,11 +1562,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,11 +1703,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1669,10 +2062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +2081,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1714,7 +2107,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -1726,13 +2119,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="11">
         <v>86</v>
@@ -1740,25 +2133,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="11">
         <v>86</v>
@@ -1766,25 +2159,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="11">
         <v>86</v>
@@ -1792,25 +2185,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11">
         <v>86</v>
@@ -1818,25 +2211,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="11">
         <v>86</v>
@@ -1844,7 +2237,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -1853,16 +2246,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="11">
         <v>86</v>
@@ -1870,25 +2263,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="11">
         <v>86</v>
@@ -1896,25 +2289,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="11">
         <v>86</v>
@@ -1922,25 +2315,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="11">
         <v>43</v>
@@ -1948,25 +2341,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11">
         <v>43</v>
@@ -1974,25 +2367,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11">
         <v>43</v>
@@ -2000,25 +2393,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11">
         <v>43</v>
@@ -2026,25 +2419,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11">
         <v>55</v>
@@ -2052,25 +2445,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="14">
         <v>40</v>
@@ -2078,25 +2471,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="14">
         <v>40</v>
@@ -2104,25 +2497,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="14">
         <v>40</v>
@@ -2130,25 +2523,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="14">
         <v>40</v>
@@ -2156,25 +2549,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="14">
         <v>40</v>
@@ -2182,25 +2575,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="14">
         <v>32</v>
@@ -2208,25 +2601,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="14">
         <v>32</v>
@@ -2234,25 +2627,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>11</v>
+      <c r="E22" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="14">
         <v>32</v>
@@ -2260,25 +2653,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="14">
         <v>32</v>
@@ -2286,25 +2679,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="14">
         <v>32</v>
@@ -2312,25 +2705,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="14">
         <v>32</v>
@@ -2338,25 +2731,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="14">
         <v>40</v>
@@ -2364,25 +2757,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="14">
         <v>32</v>
@@ -2390,25 +2783,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="14">
         <v>40</v>
@@ -2416,25 +2809,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29" s="14">
         <v>32</v>
@@ -2442,25 +2835,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="14">
         <v>43</v>
@@ -2468,25 +2861,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="14">
         <v>43</v>
@@ -2494,25 +2887,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="H32" s="14">
         <v>40</v>
@@ -2520,25 +2913,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="14">
         <v>42</v>
@@ -2546,25 +2939,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="14">
         <v>42</v>
@@ -2572,25 +2965,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="14">
         <v>40</v>
@@ -2598,25 +2991,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="14">
         <v>40</v>
@@ -2624,25 +3017,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="14">
         <v>40</v>
@@ -2650,25 +3043,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H38" s="14">
         <v>32</v>
@@ -2676,25 +3069,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>11</v>
+      <c r="E39" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H39" s="14">
         <v>32</v>
@@ -2702,25 +3095,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="14">
         <v>49</v>
@@ -2728,25 +3121,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="14">
         <v>65</v>
@@ -2754,25 +3147,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="14">
         <v>40</v>
@@ -2780,25 +3173,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H43" s="14">
         <v>40</v>
@@ -2806,25 +3199,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" s="14">
         <v>55</v>
@@ -2832,25 +3225,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H45" s="14">
         <v>88</v>
@@ -2858,73 +3251,73 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="15">
         <v>40</v>
@@ -2932,25 +3325,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="15">
         <v>43</v>
@@ -2958,25 +3351,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="15">
         <v>46</v>
@@ -2984,25 +3377,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="15">
         <v>88</v>
@@ -3010,25 +3403,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" s="15">
         <v>55</v>
@@ -3036,25 +3429,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>11</v>
+        <v>421</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="15">
         <v>46</v>
@@ -3062,25 +3455,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="15">
         <v>42</v>
@@ -3088,25 +3481,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="15">
         <v>42</v>
@@ -3114,25 +3507,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>98</v>
+        <v>421</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="15">
         <v>40</v>
@@ -3140,25 +3533,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>98</v>
+        <v>421</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="15">
         <v>42</v>
@@ -3166,25 +3559,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>98</v>
+        <v>421</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="15">
         <v>40</v>
@@ -3192,25 +3585,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="15">
         <v>46</v>
@@ -3218,25 +3611,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H60" s="15">
         <v>40</v>
@@ -3244,25 +3637,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H61" s="15">
         <v>40</v>
@@ -3270,25 +3663,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="15">
         <v>46</v>
@@ -3296,25 +3689,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>98</v>
+        <v>418</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="15">
         <v>46</v>
@@ -3322,25 +3715,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H64" s="15">
         <v>40</v>
@@ -3348,22 +3741,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15">
@@ -3372,42 +3765,42 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16">
@@ -3416,20 +3809,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="F68" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15">
@@ -3438,20 +3833,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="F69" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15">
@@ -3460,25 +3857,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="F70" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="H70" s="15">
         <v>42</v>
@@ -3486,25 +3883,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>351</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H71" s="15">
         <v>40</v>
@@ -3512,22 +3909,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H72" s="15">
         <v>40</v>
@@ -3535,22 +3935,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>11</v>
+        <v>127</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H73" s="15">
         <v>40</v>
@@ -3558,22 +3961,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>11</v>
+        <v>129</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H74" s="15">
         <v>40</v>
@@ -3581,22 +3987,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>11</v>
+        <v>131</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H75" s="15">
         <v>40</v>
@@ -3604,22 +4013,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>11</v>
+      <c r="E76" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H76" s="15">
         <v>40</v>
@@ -3627,22 +4039,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H77" s="15">
         <v>40</v>
@@ -3650,22 +4065,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H78" s="15">
         <v>40</v>
@@ -3673,22 +4091,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>11</v>
+        <v>135</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H79" s="15">
         <v>40</v>
@@ -3696,31 +4117,135 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>11</v>
+        <v>138</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H80" s="15">
         <v>46</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H81" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H82" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="H83" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="H84" s="17">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:G70"/>
+  <autoFilter ref="B1:G84"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3729,7 +4254,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,9 +4265,9 @@
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3766,53 +4291,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>349</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H2" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>349</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3">
         <v>24</v>
@@ -3820,25 +4345,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3">
         <v>24</v>
@@ -3846,25 +4371,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3">
         <v>24</v>
@@ -3872,25 +4397,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
         <v>24</v>
@@ -3898,25 +4423,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="3">
         <v>24</v>
@@ -3924,25 +4449,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H8" s="3">
         <v>24</v>
@@ -3950,25 +4475,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" s="3">
         <v>24</v>
@@ -3976,25 +4501,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3">
         <v>24</v>
@@ -4002,25 +4527,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H11" s="3">
         <v>24</v>
@@ -4028,25 +4553,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H12" s="3">
         <v>24</v>
@@ -4054,25 +4579,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" s="3">
         <v>24</v>
@@ -4080,25 +4605,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3">
         <v>24</v>
@@ -4106,25 +4631,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3">
         <v>24</v>
@@ -4132,25 +4657,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" s="3">
         <v>24</v>
@@ -4158,25 +4683,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>20</v>
@@ -4184,25 +4709,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>19</v>
@@ -4210,25 +4735,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>17</v>
@@ -4236,25 +4761,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>19</v>
@@ -4262,25 +4787,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
         <v>19</v>
@@ -4288,25 +4813,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>17</v>
@@ -4314,25 +4839,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
         <v>19</v>
@@ -4340,25 +4865,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <v>19</v>
@@ -4366,25 +4891,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>19</v>
@@ -4392,25 +4917,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <v>19</v>
@@ -4418,25 +4943,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H27" s="3">
         <v>19</v>
@@ -4444,25 +4969,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H28" s="3">
         <v>19</v>
@@ -4470,25 +4995,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H29" s="3">
         <v>19</v>
@@ -4496,25 +5021,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H30" s="3">
         <v>19</v>
@@ -4522,25 +5047,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H31" s="3">
         <v>19</v>
@@ -4548,25 +5073,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>24</v>
@@ -4574,25 +5099,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>24</v>
@@ -4600,25 +5125,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
         <v>17</v>
@@ -4626,25 +5151,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
         <v>19</v>
@@ -4652,25 +5177,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
         <v>17</v>
@@ -4678,25 +5203,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>17</v>
@@ -4704,25 +5229,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H38" s="3">
         <v>17</v>
@@ -4730,25 +5255,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H39" s="3">
         <v>17</v>
@@ -4756,25 +5281,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
         <v>17</v>
@@ -4782,25 +5307,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
         <v>19</v>
@@ -4808,25 +5333,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H42" s="3">
         <v>19</v>
@@ -4834,25 +5359,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>19</v>
@@ -4866,24 +5391,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4909,25 +5434,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3">
         <v>32</v>
@@ -4935,25 +5460,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H3" s="3">
         <v>40</v>
@@ -4961,25 +5486,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -4987,25 +5512,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H5" s="3">
         <v>46</v>
@@ -5013,25 +5538,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H6" s="3">
         <v>46</v>
@@ -5039,25 +5564,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H7" s="3">
         <v>46</v>
@@ -5065,25 +5590,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -5091,25 +5616,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3">
         <v>42</v>
@@ -5117,25 +5642,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H10" s="3">
         <v>42</v>
@@ -5143,25 +5668,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -5169,25 +5694,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H12" s="3">
         <v>43</v>
@@ -5195,25 +5720,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H13" s="3">
         <v>43</v>
@@ -5221,25 +5746,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H14" s="3">
         <v>40</v>
@@ -5247,25 +5772,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H15" s="3">
         <v>40</v>
@@ -5273,25 +5798,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H16" s="3">
         <v>88</v>
@@ -5299,28 +5824,225 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3">
         <v>43</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="42"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16"/>
+  <conditionalFormatting sqref="E18:E24 C18:C24 E26 C26">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 C25">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5330,7 +6052,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,7 +6068,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5369,278 +6091,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5651,10 +6373,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,12 +6387,13 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -5690,1537 +6414,2118 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E15" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E16" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E17" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E18" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E19" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E20" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E21" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E22" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="E23" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E24" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E25" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E26" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E27" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E28" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="E29" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E30" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E31" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E32" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E33" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E34" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E35" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E36" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E37" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E38" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E39" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E40" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E41" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="E42" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E43" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E44" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E45" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E46" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E47" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E48" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>162</v>
+      <c r="E49" s="30" t="s">
+        <v>419</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="D68" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="D69" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="D70" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D71" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H90">
+        <v>467537</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G67"/>
+  <autoFilter ref="B1:G91">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="En uso"/>
+        <filter val="USADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2A1AE458063C741842AB8EBBE581ED2" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6990e09a7d95d09e232da40966901d8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c32e03e6-ef0c-4686-b9d5-20fc79c6df97" xmlns:ns3="99002f19-2ef4-4d9e-9452-8bd5a4ecb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bb373c89002af6c0dcfca5685bb9bb1" ns2:_="" ns3:_="">
     <xsd:import namespace="c32e03e6-ef0c-4686-b9d5-20fc79c6df97"/>
@@ -7391,16 +8696,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7409,7 +8713,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85789E10-5C9A-4B83-9401-5ECFE6D45DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7426,12 +8730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pantallas" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Computadoras!$B$1:$G$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Monitores!$B$1:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$B$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Monitores!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pantallas!$A$1:$H$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Perifericos!$B$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scrap!$A$1:$G$16</definedName>
   </definedNames>
@@ -1092,9 +1092,6 @@
     <t>PC Escritorio</t>
   </si>
   <si>
-    <t>Pantallas</t>
-  </si>
-  <si>
     <t>6°to Piso</t>
   </si>
   <si>
@@ -1324,6 +1321,9 @@
   </si>
   <si>
     <t>Ex puesto de diarios</t>
+  </si>
+  <si>
+    <t>Pantalla</t>
   </si>
 </sst>
 </file>
@@ -2064,8 +2064,8 @@
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2119,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>113</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -2145,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>113</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -2171,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>113</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -2197,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>113</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2223,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>113</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -2249,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>113</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -2275,7 +2275,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>113</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -2301,7 +2301,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>113</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -2431,7 +2431,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>113</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>19</v>
@@ -2457,7 +2457,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>113</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>19</v>
@@ -2483,7 +2483,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>113</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>113</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -2535,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>113</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
@@ -2561,7 +2561,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>113</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>19</v>
@@ -2587,7 +2587,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>113</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>19</v>
@@ -2613,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>113</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -2639,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>113</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>19</v>
@@ -2665,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>113</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -2691,7 +2691,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>113</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2717,7 +2717,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>113</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>19</v>
@@ -2743,7 +2743,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>113</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>19</v>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>113</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>19</v>
@@ -2795,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>113</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>19</v>
@@ -2821,7 +2821,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>113</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
@@ -2847,7 +2847,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>113</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -2873,7 +2873,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>113</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -2899,7 +2899,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>53</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
@@ -2925,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>113</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
@@ -2951,7 +2951,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>59</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>19</v>
@@ -2977,7 +2977,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>113</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>19</v>
@@ -3003,7 +3003,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>113</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>19</v>
@@ -3029,7 +3029,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>113</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>19</v>
@@ -3055,7 +3055,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>113</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>19</v>
@@ -3081,7 +3081,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>113</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
@@ -3107,7 +3107,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>113</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>19</v>
@@ -3133,7 +3133,7 @@
         <v>70</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>113</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>19</v>
@@ -3159,7 +3159,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>113</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>19</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
@@ -3211,7 +3211,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>113</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
@@ -3237,7 +3237,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>113</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>19</v>
@@ -3263,19 +3263,19 @@
         <v>78</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>113</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>19</v>
@@ -3311,7 +3311,7 @@
         <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>113</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
@@ -3337,7 +3337,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>113</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>19</v>
@@ -3363,7 +3363,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>113</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -3389,7 +3389,7 @@
         <v>87</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>113</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
@@ -3415,7 +3415,7 @@
         <v>89</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>113</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>19</v>
@@ -3441,7 +3441,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>113</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
@@ -3467,7 +3467,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>113</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
@@ -3493,7 +3493,7 @@
         <v>94</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>113</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>19</v>
@@ -3519,7 +3519,7 @@
         <v>96</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>113</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
@@ -3545,7 +3545,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>113</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>19</v>
@@ -3571,7 +3571,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>113</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>19</v>
@@ -3597,7 +3597,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>113</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>19</v>
@@ -3623,10 +3623,10 @@
         <v>102</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>103</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>19</v>
@@ -3649,7 +3649,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>113</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>19</v>
@@ -3675,7 +3675,7 @@
         <v>106</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>107</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>19</v>
@@ -3701,7 +3701,7 @@
         <v>108</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>113</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
@@ -3727,7 +3727,7 @@
         <v>110</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>113</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>19</v>
@@ -3753,7 +3753,7 @@
         <v>112</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>113</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
@@ -3775,7 +3775,7 @@
         <v>114</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>113</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>19</v>
@@ -3797,7 +3797,7 @@
         <v>116</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>113</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>19</v>
@@ -3821,7 +3821,7 @@
         <v>118</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>113</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>19</v>
@@ -3845,7 +3845,7 @@
         <v>119</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>113</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
@@ -3869,7 +3869,7 @@
         <v>120</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>113</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>19</v>
@@ -3898,7 +3898,7 @@
         <v>143</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>124</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>19</v>
@@ -3924,7 +3924,7 @@
         <v>143</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>126</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>19</v>
@@ -3950,7 +3950,7 @@
         <v>143</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>128</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>19</v>
@@ -3973,7 +3973,7 @@
         <v>129</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>113</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>19</v>
@@ -3999,7 +3999,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>113</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>19</v>
@@ -4025,7 +4025,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>113</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>19</v>
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>113</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>19</v>
@@ -4077,7 +4077,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>113</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>19</v>
@@ -4103,7 +4103,7 @@
         <v>135</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>113</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>19</v>
@@ -4132,7 +4132,7 @@
         <v>143</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>139</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>19</v>
@@ -4152,13 +4152,13 @@
         <v>137</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H81" s="24">
         <v>40</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>19</v>
@@ -4175,16 +4175,16 @@
         <v>101</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>357</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>358</v>
       </c>
       <c r="H82" s="25">
         <v>40</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>19</v>
@@ -4201,16 +4201,16 @@
         <v>101</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F83" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="H83" s="17">
         <v>40</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>19</v>
@@ -4227,23 +4227,23 @@
         <v>101</v>
       </c>
       <c r="D84" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="H84" s="17">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G84"/>
+  <autoFilter ref="A1:H84"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4253,9 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4308,7 +4306,7 @@
         <v>143</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>81</v>
@@ -4334,7 +4332,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>81</v>
@@ -4409,7 +4407,7 @@
         <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>113</v>
@@ -4461,7 +4459,7 @@
         <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>113</v>
@@ -4487,7 +4485,7 @@
         <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>113</v>
@@ -4513,7 +4511,7 @@
         <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>113</v>
@@ -4539,7 +4537,7 @@
         <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>113</v>
@@ -4565,7 +4563,7 @@
         <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>113</v>
@@ -4591,7 +4589,7 @@
         <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>113</v>
@@ -4617,7 +4615,7 @@
         <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>113</v>
@@ -4695,7 +4693,7 @@
         <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>113</v>
@@ -4721,7 +4719,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>113</v>
@@ -4747,7 +4745,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>113</v>
@@ -4773,7 +4771,7 @@
         <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>113</v>
@@ -4799,7 +4797,7 @@
         <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>113</v>
@@ -4825,7 +4823,7 @@
         <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>113</v>
@@ -4851,7 +4849,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>113</v>
@@ -4877,7 +4875,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>113</v>
@@ -4903,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>113</v>
@@ -4929,7 +4927,7 @@
         <v>182</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>113</v>
@@ -4955,7 +4953,7 @@
         <v>183</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>113</v>
@@ -4981,7 +4979,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>113</v>
@@ -5007,7 +5005,7 @@
         <v>187</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>113</v>
@@ -5033,7 +5031,7 @@
         <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>113</v>
@@ -5059,7 +5057,7 @@
         <v>191</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>113</v>
@@ -5111,7 +5109,7 @@
         <v>196</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>113</v>
@@ -5137,7 +5135,7 @@
         <v>197</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>113</v>
@@ -5163,7 +5161,7 @@
         <v>198</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>113</v>
@@ -5189,7 +5187,7 @@
         <v>200</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>113</v>
@@ -5215,7 +5213,7 @@
         <v>203</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>113</v>
@@ -5241,7 +5239,7 @@
         <v>204</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>113</v>
@@ -5267,7 +5265,7 @@
         <v>206</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>113</v>
@@ -5293,7 +5291,7 @@
         <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>113</v>
@@ -5319,7 +5317,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>113</v>
@@ -5345,7 +5343,7 @@
         <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>113</v>
@@ -5371,7 +5369,7 @@
         <v>212</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>113</v>
@@ -5384,7 +5382,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G43"/>
+  <autoFilter ref="A1:H43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5846,16 +5844,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>201</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>121</v>
@@ -5867,16 +5865,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>201</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>121</v>
@@ -5888,14 +5886,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>121</v>
@@ -5907,16 +5905,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>121</v>
@@ -5928,16 +5926,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>201</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>121</v>
@@ -5946,21 +5944,21 @@
         <v>113</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>121</v>
@@ -5969,21 +5967,21 @@
         <v>113</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>412</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>413</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>121</v>
@@ -5995,16 +5993,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="C25" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>412</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>413</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>121</v>
@@ -6016,16 +6014,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>121</v>
@@ -6052,7 +6050,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,7 +6101,7 @@
         <v>241</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>242</v>
@@ -6126,7 +6124,7 @@
         <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>113</v>
@@ -6149,7 +6147,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>113</v>
@@ -6172,7 +6170,7 @@
         <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>113</v>
@@ -6195,7 +6193,7 @@
         <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>113</v>
@@ -6218,7 +6216,7 @@
         <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
@@ -6241,7 +6239,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>113</v>
@@ -6264,7 +6262,7 @@
         <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>113</v>
@@ -6287,7 +6285,7 @@
         <v>252</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>113</v>
@@ -6310,7 +6308,7 @@
         <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>113</v>
@@ -6333,7 +6331,7 @@
         <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>255</v>
@@ -6356,7 +6354,7 @@
         <v>257</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>113</v>
@@ -6368,6 +6366,7 @@
   </sheetData>
   <autoFilter ref="B1:G13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6376,8 +6375,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6428,7 +6427,7 @@
         <v>259</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>149</v>
@@ -6451,7 +6450,7 @@
         <v>260</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>149</v>
@@ -6474,7 +6473,7 @@
         <v>261</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>149</v>
@@ -6497,7 +6496,7 @@
         <v>262</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>149</v>
@@ -6520,7 +6519,7 @@
         <v>263</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>149</v>
@@ -6543,7 +6542,7 @@
         <v>264</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>149</v>
@@ -6566,7 +6565,7 @@
         <v>265</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>149</v>
@@ -6589,7 +6588,7 @@
         <v>266</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>149</v>
@@ -6612,7 +6611,7 @@
         <v>268</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>269</v>
@@ -6635,7 +6634,7 @@
         <v>270</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>269</v>
@@ -6658,7 +6657,7 @@
         <v>271</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>269</v>
@@ -6681,7 +6680,7 @@
         <v>272</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>269</v>
@@ -6704,7 +6703,7 @@
         <v>274</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>149</v>
@@ -6727,7 +6726,7 @@
         <v>275</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>149</v>
@@ -6750,7 +6749,7 @@
         <v>276</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>149</v>
@@ -6773,7 +6772,7 @@
         <v>277</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>149</v>
@@ -6796,7 +6795,7 @@
         <v>278</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>149</v>
@@ -6819,7 +6818,7 @@
         <v>279</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>149</v>
@@ -6842,7 +6841,7 @@
         <v>280</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>149</v>
@@ -6865,7 +6864,7 @@
         <v>281</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>149</v>
@@ -6888,7 +6887,7 @@
         <v>282</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>149</v>
@@ -6911,7 +6910,7 @@
         <v>283</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>149</v>
@@ -6934,7 +6933,7 @@
         <v>284</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>149</v>
@@ -6957,7 +6956,7 @@
         <v>285</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>149</v>
@@ -6980,7 +6979,7 @@
         <v>286</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>149</v>
@@ -7003,7 +7002,7 @@
         <v>287</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>149</v>
@@ -7026,7 +7025,7 @@
         <v>288</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>149</v>
@@ -7049,7 +7048,7 @@
         <v>289</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>149</v>
@@ -7072,7 +7071,7 @@
         <v>290</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>149</v>
@@ -7095,7 +7094,7 @@
         <v>291</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>149</v>
@@ -7118,7 +7117,7 @@
         <v>292</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>149</v>
@@ -7141,7 +7140,7 @@
         <v>293</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>149</v>
@@ -7164,7 +7163,7 @@
         <v>294</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>149</v>
@@ -7187,7 +7186,7 @@
         <v>295</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>149</v>
@@ -7210,7 +7209,7 @@
         <v>296</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>149</v>
@@ -7233,7 +7232,7 @@
         <v>297</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>149</v>
@@ -7256,7 +7255,7 @@
         <v>298</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>149</v>
@@ -7279,7 +7278,7 @@
         <v>299</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>149</v>
@@ -7302,7 +7301,7 @@
         <v>300</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>149</v>
@@ -7325,7 +7324,7 @@
         <v>301</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>149</v>
@@ -7348,7 +7347,7 @@
         <v>302</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>149</v>
@@ -7371,7 +7370,7 @@
         <v>303</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>149</v>
@@ -7394,7 +7393,7 @@
         <v>304</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>149</v>
@@ -7417,7 +7416,7 @@
         <v>305</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>149</v>
@@ -7440,7 +7439,7 @@
         <v>306</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>149</v>
@@ -7463,7 +7462,7 @@
         <v>307</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>149</v>
@@ -7486,7 +7485,7 @@
         <v>308</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>149</v>
@@ -7509,7 +7508,7 @@
         <v>309</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>149</v>
@@ -7532,7 +7531,7 @@
         <v>311</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>149</v>
@@ -7555,7 +7554,7 @@
         <v>314</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>149</v>
@@ -7578,7 +7577,7 @@
         <v>317</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>149</v>
@@ -7601,7 +7600,7 @@
         <v>321</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>149</v>
@@ -7624,7 +7623,7 @@
         <v>324</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>149</v>
@@ -7647,7 +7646,7 @@
         <v>325</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>149</v>
@@ -7670,7 +7669,7 @@
         <v>326</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>149</v>
@@ -7693,7 +7692,7 @@
         <v>329</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>149</v>
@@ -7716,7 +7715,7 @@
         <v>331</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>149</v>
@@ -7739,7 +7738,7 @@
         <v>332</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>149</v>
@@ -7762,7 +7761,7 @@
         <v>334</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>149</v>
@@ -7785,7 +7784,7 @@
         <v>336</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
@@ -7808,7 +7807,7 @@
         <v>337</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>149</v>
@@ -7831,7 +7830,7 @@
         <v>339</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>149</v>
@@ -7854,7 +7853,7 @@
         <v>340</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>149</v>
@@ -7877,7 +7876,7 @@
         <v>341</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>149</v>
@@ -7900,7 +7899,7 @@
         <v>342</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>149</v>
@@ -7923,7 +7922,7 @@
         <v>343</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>149</v>
@@ -7934,16 +7933,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>364</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>365</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>143</v>
@@ -7955,21 +7954,21 @@
         <v>143</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D69" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>143</v>
@@ -7981,21 +7980,21 @@
         <v>143</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D70" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>143</v>
@@ -8007,24 +8006,24 @@
         <v>143</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D71" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>149</v>
@@ -8035,19 +8034,19 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D72" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>149</v>
@@ -8058,19 +8057,19 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B73" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D73" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>149</v>
@@ -8081,19 +8080,19 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C74" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D74" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>149</v>
@@ -8104,19 +8103,19 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B75" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C75" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D75" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>149</v>
@@ -8127,19 +8126,19 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B76" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D76" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F76" s="30" t="s">
         <v>149</v>
@@ -8150,19 +8149,19 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C77" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D77" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>149</v>
@@ -8173,19 +8172,19 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B78" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C78" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D78" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F78" s="30" t="s">
         <v>149</v>
@@ -8196,19 +8195,19 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D79" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>149</v>
@@ -8219,19 +8218,19 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B80" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D80" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>149</v>
@@ -8242,19 +8241,19 @@
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D81" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>149</v>
@@ -8265,19 +8264,19 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D82" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F82" s="30" t="s">
         <v>149</v>
@@ -8288,19 +8287,19 @@
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D83" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>149</v>
@@ -8311,19 +8310,19 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>149</v>
@@ -8334,19 +8333,19 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D85" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>149</v>
@@ -8357,19 +8356,19 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B86" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D86" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>149</v>
@@ -8380,19 +8379,19 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D87" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>149</v>
@@ -8403,19 +8402,19 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C88" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="D88" s="33" t="s">
-        <v>389</v>
-      </c>
       <c r="E88" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>149</v>
@@ -8426,71 +8425,71 @@
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B90" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C90" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D90" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H90">
         <v>467537</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B91" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C91" s="30" t="s">
-        <v>364</v>
-      </c>
       <c r="D91" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>149</v>
@@ -8511,18 +8510,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8697,18 +8696,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="425">
   <si>
     <t>MARCA</t>
   </si>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>3KJQJ73</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
   </si>
   <si>
     <t>P2417HC</t>
@@ -2059,13 +2056,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2119,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>113</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -2145,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>113</v>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -2171,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>113</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -2197,7 +2194,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>113</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2223,7 +2220,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>113</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -2249,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>113</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -2275,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>113</v>
@@ -2289,7 +2286,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -2301,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>113</v>
@@ -2313,9 +2310,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -2339,9 +2336,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -2365,9 +2362,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2391,9 +2388,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -2417,9 +2414,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -2431,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>113</v>
@@ -2443,9 +2440,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>19</v>
@@ -2457,7 +2454,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>113</v>
@@ -2469,9 +2466,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>19</v>
@@ -2483,7 +2480,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>113</v>
@@ -2495,9 +2492,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
@@ -2509,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>113</v>
@@ -2521,9 +2518,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -2535,7 +2532,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>113</v>
@@ -2547,9 +2544,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
@@ -2561,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>113</v>
@@ -2573,9 +2570,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>19</v>
@@ -2587,7 +2584,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>113</v>
@@ -2599,9 +2596,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>19</v>
@@ -2613,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>113</v>
@@ -2625,9 +2622,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -2639,7 +2636,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>113</v>
@@ -2651,9 +2648,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>19</v>
@@ -2665,7 +2662,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>113</v>
@@ -2677,9 +2674,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -2691,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>113</v>
@@ -2703,9 +2700,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2717,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>113</v>
@@ -2729,9 +2726,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>19</v>
@@ -2743,7 +2740,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>113</v>
@@ -2755,9 +2752,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>19</v>
@@ -2769,7 +2766,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>113</v>
@@ -2781,9 +2778,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>19</v>
@@ -2795,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>113</v>
@@ -2807,9 +2804,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>19</v>
@@ -2821,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>113</v>
@@ -2833,9 +2830,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
@@ -2847,7 +2844,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>113</v>
@@ -2859,9 +2856,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -2873,7 +2870,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>113</v>
@@ -2885,9 +2882,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -2899,7 +2896,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>53</v>
@@ -2911,9 +2908,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
@@ -2925,7 +2922,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>113</v>
@@ -2937,9 +2934,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
@@ -2951,7 +2948,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>59</v>
@@ -2963,9 +2960,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>19</v>
@@ -2977,7 +2974,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>113</v>
@@ -2989,9 +2986,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>19</v>
@@ -3003,7 +3000,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>113</v>
@@ -3015,9 +3012,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>19</v>
@@ -3029,7 +3026,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>113</v>
@@ -3041,9 +3038,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>19</v>
@@ -3055,7 +3052,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>113</v>
@@ -3067,9 +3064,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>19</v>
@@ -3081,7 +3078,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>113</v>
@@ -3093,9 +3090,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
@@ -3107,7 +3104,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>113</v>
@@ -3119,9 +3116,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>19</v>
@@ -3133,7 +3130,7 @@
         <v>70</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>113</v>
@@ -3145,9 +3142,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>19</v>
@@ -3159,7 +3156,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>113</v>
@@ -3171,9 +3168,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>19</v>
@@ -3197,9 +3194,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
@@ -3211,7 +3208,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>113</v>
@@ -3223,9 +3220,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
@@ -3237,7 +3234,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>113</v>
@@ -3249,9 +3246,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>19</v>
@@ -3263,19 +3260,19 @@
         <v>78</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>424</v>
-      </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>425</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
@@ -3287,7 +3284,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>113</v>
@@ -3297,9 +3294,9 @@
       </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>19</v>
@@ -3311,7 +3308,7 @@
         <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>113</v>
@@ -3323,9 +3320,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
@@ -3337,7 +3334,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>113</v>
@@ -3349,9 +3346,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>19</v>
@@ -3363,7 +3360,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>113</v>
@@ -3375,9 +3372,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -3389,7 +3386,7 @@
         <v>87</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>113</v>
@@ -3401,9 +3398,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
@@ -3415,7 +3412,7 @@
         <v>89</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>113</v>
@@ -3427,9 +3424,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>19</v>
@@ -3441,7 +3438,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>113</v>
@@ -3453,9 +3450,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
@@ -3467,7 +3464,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>113</v>
@@ -3479,9 +3476,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
@@ -3493,7 +3490,7 @@
         <v>94</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>113</v>
@@ -3505,9 +3502,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>19</v>
@@ -3519,7 +3516,7 @@
         <v>96</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>113</v>
@@ -3531,9 +3528,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
@@ -3545,7 +3542,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>113</v>
@@ -3557,9 +3554,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>19</v>
@@ -3571,7 +3568,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>113</v>
@@ -3583,9 +3580,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>19</v>
@@ -3597,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>113</v>
@@ -3609,9 +3606,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>19</v>
@@ -3623,10 +3620,10 @@
         <v>102</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>103</v>
@@ -3635,9 +3632,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>19</v>
@@ -3649,7 +3646,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>113</v>
@@ -3661,9 +3658,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>19</v>
@@ -3675,7 +3672,7 @@
         <v>106</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>107</v>
@@ -3687,9 +3684,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>19</v>
@@ -3701,7 +3698,7 @@
         <v>108</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>113</v>
@@ -3713,9 +3710,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
@@ -3727,7 +3724,7 @@
         <v>110</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>113</v>
@@ -3739,9 +3736,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>19</v>
@@ -3753,7 +3750,7 @@
         <v>112</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>113</v>
@@ -3763,9 +3760,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
@@ -3775,7 +3772,7 @@
         <v>114</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>113</v>
@@ -3783,9 +3780,9 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>19</v>
@@ -3797,7 +3794,7 @@
         <v>116</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>113</v>
@@ -3807,9 +3804,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>19</v>
@@ -3821,7 +3818,7 @@
         <v>118</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>113</v>
@@ -3831,9 +3828,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>19</v>
@@ -3845,7 +3842,7 @@
         <v>119</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>113</v>
@@ -3855,9 +3852,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
@@ -3869,7 +3866,7 @@
         <v>120</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>113</v>
@@ -3881,9 +3878,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>19</v>
@@ -3898,7 +3895,7 @@
         <v>143</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>124</v>
@@ -3907,9 +3904,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>19</v>
@@ -3924,7 +3921,7 @@
         <v>143</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>126</v>
@@ -3933,9 +3930,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>19</v>
@@ -3950,7 +3947,7 @@
         <v>143</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>128</v>
@@ -3959,9 +3956,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>19</v>
@@ -3973,7 +3970,7 @@
         <v>129</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>113</v>
@@ -3985,9 +3982,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>19</v>
@@ -3999,7 +3996,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>113</v>
@@ -4011,9 +4008,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>19</v>
@@ -4025,7 +4022,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>113</v>
@@ -4037,9 +4034,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>19</v>
@@ -4051,7 +4048,7 @@
         <v>133</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>113</v>
@@ -4063,9 +4060,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>19</v>
@@ -4077,7 +4074,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>113</v>
@@ -4089,9 +4086,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>19</v>
@@ -4103,7 +4100,7 @@
         <v>135</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>113</v>
@@ -4115,9 +4112,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>19</v>
@@ -4132,7 +4129,7 @@
         <v>143</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>139</v>
@@ -4141,9 +4138,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>19</v>
@@ -4152,21 +4149,21 @@
         <v>137</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H81" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>19</v>
@@ -4175,24 +4172,24 @@
         <v>101</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>356</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>357</v>
       </c>
       <c r="H82" s="25">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>19</v>
@@ -4201,24 +4198,24 @@
         <v>101</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F83" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>360</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>361</v>
       </c>
       <c r="H83" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>19</v>
@@ -4227,23 +4224,29 @@
         <v>101</v>
       </c>
       <c r="D84" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="H84" s="17">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H84"/>
+  <autoFilter ref="A1:H84">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Nuevo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4253,7 +4256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4265,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4291,7 +4296,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>140</v>
@@ -4306,7 +4311,7 @@
         <v>143</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>81</v>
@@ -4317,7 +4322,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>140</v>
@@ -4332,7 +4337,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>81</v>
@@ -4343,7 +4348,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>140</v>
@@ -4369,7 +4374,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>140</v>
@@ -4395,7 +4400,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>140</v>
@@ -4407,7 +4412,7 @@
         <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>113</v>
@@ -4421,7 +4426,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>140</v>
@@ -4447,7 +4452,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>140</v>
@@ -4459,7 +4464,7 @@
         <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>113</v>
@@ -4473,7 +4478,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>140</v>
@@ -4485,7 +4490,7 @@
         <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>113</v>
@@ -4499,7 +4504,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>140</v>
@@ -4511,7 +4516,7 @@
         <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>113</v>
@@ -4525,7 +4530,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>140</v>
@@ -4537,7 +4542,7 @@
         <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>113</v>
@@ -4551,7 +4556,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>140</v>
@@ -4563,7 +4568,7 @@
         <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>113</v>
@@ -4577,7 +4582,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
@@ -4589,7 +4594,7 @@
         <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>113</v>
@@ -4603,7 +4608,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>140</v>
@@ -4615,7 +4620,7 @@
         <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>113</v>
@@ -4629,7 +4634,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>160</v>
@@ -4655,7 +4660,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>160</v>
@@ -4681,7 +4686,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -4693,7 +4698,7 @@
         <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>113</v>
@@ -4707,7 +4712,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -4719,7 +4724,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>113</v>
@@ -4733,7 +4738,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -4745,7 +4750,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>113</v>
@@ -4759,7 +4764,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>160</v>
@@ -4771,7 +4776,7 @@
         <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>113</v>
@@ -4785,7 +4790,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>160</v>
@@ -4797,7 +4802,7 @@
         <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>113</v>
@@ -4811,7 +4816,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>160</v>
@@ -4823,7 +4828,7 @@
         <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>113</v>
@@ -4837,7 +4842,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -4849,7 +4854,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>113</v>
@@ -4863,7 +4868,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>140</v>
@@ -4875,7 +4880,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>113</v>
@@ -4889,7 +4894,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>179</v>
@@ -4901,7 +4906,7 @@
         <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>113</v>
@@ -4915,7 +4920,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -4927,7 +4932,7 @@
         <v>182</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>113</v>
@@ -4941,7 +4946,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>160</v>
@@ -4953,7 +4958,7 @@
         <v>183</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>113</v>
@@ -4967,7 +4972,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -4979,7 +4984,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>113</v>
@@ -4993,7 +4998,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>140</v>
@@ -5005,7 +5010,7 @@
         <v>187</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>113</v>
@@ -5019,7 +5024,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>140</v>
@@ -5031,7 +5036,7 @@
         <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>113</v>
@@ -5045,7 +5050,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>189</v>
@@ -5057,7 +5062,7 @@
         <v>191</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>113</v>
@@ -5071,7 +5076,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>140</v>
@@ -5083,7 +5088,7 @@
         <v>193</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>151</v>
@@ -5097,19 +5102,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>113</v>
@@ -5123,7 +5128,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
@@ -5132,10 +5137,10 @@
         <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>113</v>
@@ -5149,7 +5154,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
@@ -5158,10 +5163,10 @@
         <v>175</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>113</v>
@@ -5175,19 +5180,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>113</v>
@@ -5201,19 +5206,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>113</v>
@@ -5227,19 +5232,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>113</v>
@@ -5253,19 +5258,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>113</v>
@@ -5279,19 +5284,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>113</v>
@@ -5305,7 +5310,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>160</v>
@@ -5317,7 +5322,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>113</v>
@@ -5331,19 +5336,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>113</v>
@@ -5357,19 +5362,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>113</v>
@@ -5406,7 +5411,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5432,25 +5437,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" s="3">
         <v>32</v>
@@ -5458,7 +5463,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>189</v>
@@ -5467,16 +5472,16 @@
         <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="3">
         <v>40</v>
@@ -5484,7 +5489,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>189</v>
@@ -5496,13 +5501,13 @@
         <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -5510,25 +5515,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="3">
         <v>46</v>
@@ -5536,7 +5541,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>189</v>
@@ -5545,16 +5550,16 @@
         <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="3">
         <v>46</v>
@@ -5562,7 +5567,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>189</v>
@@ -5571,16 +5576,16 @@
         <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="H7" s="3">
         <v>46</v>
@@ -5588,25 +5593,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="H8" s="3">
         <v>43</v>
@@ -5614,7 +5619,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -5623,16 +5628,16 @@
         <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="3">
         <v>42</v>
@@ -5640,7 +5645,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -5649,16 +5654,16 @@
         <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="3">
         <v>42</v>
@@ -5666,7 +5671,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -5675,16 +5680,16 @@
         <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -5692,25 +5697,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="3">
         <v>43</v>
@@ -5718,25 +5723,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H13" s="3">
         <v>43</v>
@@ -5744,25 +5749,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="3">
         <v>40</v>
@@ -5770,7 +5775,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>189</v>
@@ -5779,16 +5784,16 @@
         <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="3">
         <v>40</v>
@@ -5796,7 +5801,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -5805,16 +5810,16 @@
         <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="F16" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16" s="3">
         <v>88</v>
@@ -5822,7 +5827,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -5831,7 +5836,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
@@ -5844,16 +5849,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>121</v>
@@ -5865,16 +5870,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>121</v>
@@ -5886,14 +5891,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>121</v>
@@ -5905,16 +5910,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>121</v>
@@ -5926,16 +5931,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>121</v>
@@ -5944,21 +5949,21 @@
         <v>113</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>121</v>
@@ -5967,21 +5972,21 @@
         <v>113</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>411</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>412</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>121</v>
@@ -5993,16 +5998,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="C25" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>411</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>412</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>121</v>
@@ -6014,16 +6019,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>121</v>
@@ -6066,7 +6071,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6089,278 +6094,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6392,7 +6397,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -6415,19 +6420,19 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="E2" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>149</v>
@@ -6438,19 +6443,19 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>149</v>
@@ -6461,19 +6466,19 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>149</v>
@@ -6484,19 +6489,19 @@
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>149</v>
@@ -6507,19 +6512,19 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>149</v>
@@ -6530,19 +6535,19 @@
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>149</v>
@@ -6553,19 +6558,19 @@
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>149</v>
@@ -6576,19 +6581,19 @@
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>149</v>
@@ -6599,22 +6604,22 @@
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
@@ -6622,22 +6627,22 @@
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -6645,22 +6650,22 @@
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>10</v>
@@ -6668,22 +6673,22 @@
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -6691,19 +6696,19 @@
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="E14" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>149</v>
@@ -6714,19 +6719,19 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>149</v>
@@ -6737,19 +6742,19 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>149</v>
@@ -6760,19 +6765,19 @@
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>149</v>
@@ -6783,19 +6788,19 @@
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>149</v>
@@ -6806,19 +6811,19 @@
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>149</v>
@@ -6829,19 +6834,19 @@
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>149</v>
@@ -6852,19 +6857,19 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>149</v>
@@ -6875,19 +6880,19 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>149</v>
@@ -6898,19 +6903,19 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>149</v>
@@ -6921,19 +6926,19 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>149</v>
@@ -6944,19 +6949,19 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>149</v>
@@ -6967,19 +6972,19 @@
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>149</v>
@@ -6990,19 +6995,19 @@
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>149</v>
@@ -7013,19 +7018,19 @@
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>149</v>
@@ -7036,19 +7041,19 @@
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>149</v>
@@ -7059,19 +7064,19 @@
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>149</v>
@@ -7082,19 +7087,19 @@
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>149</v>
@@ -7105,19 +7110,19 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>149</v>
@@ -7128,19 +7133,19 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>149</v>
@@ -7151,19 +7156,19 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>149</v>
@@ -7174,19 +7179,19 @@
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>149</v>
@@ -7197,19 +7202,19 @@
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>149</v>
@@ -7220,19 +7225,19 @@
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>149</v>
@@ -7243,19 +7248,19 @@
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>149</v>
@@ -7266,19 +7271,19 @@
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>149</v>
@@ -7289,19 +7294,19 @@
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>149</v>
@@ -7312,19 +7317,19 @@
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>149</v>
@@ -7335,19 +7340,19 @@
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>149</v>
@@ -7358,19 +7363,19 @@
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>149</v>
@@ -7381,19 +7386,19 @@
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>149</v>
@@ -7404,19 +7409,19 @@
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>149</v>
@@ -7427,19 +7432,19 @@
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>149</v>
@@ -7450,19 +7455,19 @@
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>149</v>
@@ -7473,19 +7478,19 @@
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>149</v>
@@ -7496,19 +7501,19 @@
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>149</v>
@@ -7519,341 +7524,341 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E54" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>149</v>
@@ -7864,19 +7869,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>149</v>
@@ -7887,19 +7892,19 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>149</v>
@@ -7910,19 +7915,19 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>149</v>
@@ -7933,16 +7938,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>363</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>364</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>143</v>
@@ -7954,21 +7959,21 @@
         <v>143</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D69" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>143</v>
@@ -7980,21 +7985,21 @@
         <v>143</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D70" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>143</v>
@@ -8006,24 +8011,24 @@
         <v>143</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D71" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>149</v>
@@ -8034,19 +8039,19 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D72" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>149</v>
@@ -8057,19 +8062,19 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B73" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D73" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>149</v>
@@ -8080,19 +8085,19 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D74" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>149</v>
@@ -8103,19 +8108,19 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B75" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C75" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D75" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>149</v>
@@ -8126,19 +8131,19 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B76" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D76" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F76" s="30" t="s">
         <v>149</v>
@@ -8149,19 +8154,19 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C77" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D77" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>149</v>
@@ -8172,19 +8177,19 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B78" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D78" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F78" s="30" t="s">
         <v>149</v>
@@ -8195,19 +8200,19 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D79" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>149</v>
@@ -8218,19 +8223,19 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B80" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D80" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>149</v>
@@ -8241,19 +8246,19 @@
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D81" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>149</v>
@@ -8264,19 +8269,19 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D82" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F82" s="30" t="s">
         <v>149</v>
@@ -8287,19 +8292,19 @@
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B83" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D83" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>149</v>
@@ -8310,19 +8315,19 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D84" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>149</v>
@@ -8333,19 +8338,19 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D85" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>149</v>
@@ -8356,19 +8361,19 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B86" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D86" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>149</v>
@@ -8379,19 +8384,19 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D87" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>149</v>
@@ -8402,19 +8407,19 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C88" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="D88" s="33" t="s">
-        <v>388</v>
-      </c>
       <c r="E88" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>149</v>
@@ -8425,71 +8430,71 @@
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D90" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H90">
         <v>467537</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B91" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="D91" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>149</v>
@@ -8516,15 +8521,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2A1AE458063C741842AB8EBBE581ED2" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6990e09a7d95d09e232da40966901d8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c32e03e6-ef0c-4686-b9d5-20fc79c6df97" xmlns:ns3="99002f19-2ef4-4d9e-9452-8bd5a4ecb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bb373c89002af6c0dcfca5685bb9bb1" ns2:_="" ns3:_="">
     <xsd:import namespace="c32e03e6-ef0c-4686-b9d5-20fc79c6df97"/>
@@ -8695,6 +8691,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>
@@ -8705,14 +8710,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85789E10-5C9A-4B83-9401-5ECFE6D45DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8729,4 +8726,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pantallas" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="423">
   <si>
     <t>MARCA</t>
   </si>
@@ -771,9 +771,6 @@
     <t>CN04T25DLO300192B18EA01</t>
   </si>
   <si>
-    <t xml:space="preserve">Sexto piso </t>
-  </si>
-  <si>
     <t>Adrian Di chiacchio</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
   </si>
   <si>
     <t>CN04T25DLO300192B16BA01</t>
-  </si>
-  <si>
-    <t>Sexto Piso</t>
   </si>
   <si>
     <t>PABLO SABBADINNI</t>
@@ -2078,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -2104,7 +2098,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2116,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>113</v>
@@ -2130,7 +2124,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -2142,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>113</v>
@@ -2156,7 +2150,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -2168,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>113</v>
@@ -2182,7 +2176,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -2194,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>113</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2220,7 +2214,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>113</v>
@@ -2234,7 +2228,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
@@ -2246,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>113</v>
@@ -2260,7 +2254,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -2272,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>113</v>
@@ -2286,7 +2280,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -2298,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>113</v>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -2338,7 +2332,7 @@
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2390,7 +2384,7 @@
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -2416,7 +2410,7 @@
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -2428,7 +2422,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>113</v>
@@ -2442,7 +2436,7 @@
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>19</v>
@@ -2454,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>113</v>
@@ -2468,7 +2462,7 @@
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>19</v>
@@ -2480,7 +2474,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>113</v>
@@ -2494,7 +2488,7 @@
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
@@ -2506,7 +2500,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>113</v>
@@ -2520,7 +2514,7 @@
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -2532,7 +2526,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>113</v>
@@ -2546,7 +2540,7 @@
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
@@ -2558,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>113</v>
@@ -2572,7 +2566,7 @@
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>19</v>
@@ -2584,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>113</v>
@@ -2598,7 +2592,7 @@
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>19</v>
@@ -2610,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>113</v>
@@ -2624,7 +2618,7 @@
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>19</v>
@@ -2636,7 +2630,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>113</v>
@@ -2650,7 +2644,7 @@
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>19</v>
@@ -2662,7 +2656,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>113</v>
@@ -2676,7 +2670,7 @@
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>19</v>
@@ -2688,7 +2682,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>113</v>
@@ -2702,7 +2696,7 @@
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>19</v>
@@ -2714,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>113</v>
@@ -2728,7 +2722,7 @@
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>19</v>
@@ -2740,7 +2734,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>113</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>19</v>
@@ -2766,7 +2760,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>113</v>
@@ -2780,7 +2774,7 @@
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>19</v>
@@ -2792,7 +2786,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>113</v>
@@ -2806,7 +2800,7 @@
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>19</v>
@@ -2818,7 +2812,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>113</v>
@@ -2832,7 +2826,7 @@
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>7</v>
@@ -2844,7 +2838,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>113</v>
@@ -2858,7 +2852,7 @@
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>7</v>
@@ -2870,7 +2864,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>113</v>
@@ -2884,7 +2878,7 @@
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>19</v>
@@ -2896,7 +2890,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>53</v>
@@ -2910,7 +2904,7 @@
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>7</v>
@@ -2922,7 +2916,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>113</v>
@@ -2936,7 +2930,7 @@
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>7</v>
@@ -2948,7 +2942,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>59</v>
@@ -2962,7 +2956,7 @@
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>19</v>
@@ -2974,7 +2968,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>113</v>
@@ -2988,7 +2982,7 @@
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>19</v>
@@ -3000,7 +2994,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>113</v>
@@ -3014,7 +3008,7 @@
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>19</v>
@@ -3026,7 +3020,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>113</v>
@@ -3040,7 +3034,7 @@
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>19</v>
@@ -3052,7 +3046,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>113</v>
@@ -3066,7 +3060,7 @@
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>19</v>
@@ -3078,7 +3072,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>113</v>
@@ -3092,7 +3086,7 @@
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>7</v>
@@ -3104,7 +3098,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>113</v>
@@ -3118,7 +3112,7 @@
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>19</v>
@@ -3130,7 +3124,7 @@
         <v>70</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>113</v>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>19</v>
@@ -3156,7 +3150,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>113</v>
@@ -3170,7 +3164,7 @@
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>19</v>
@@ -3196,7 +3190,7 @@
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>7</v>
@@ -3208,7 +3202,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>113</v>
@@ -3222,7 +3216,7 @@
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>7</v>
@@ -3234,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>113</v>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>19</v>
@@ -3260,19 +3254,19 @@
         <v>78</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>7</v>
@@ -3284,7 +3278,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>113</v>
@@ -3296,7 +3290,7 @@
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>19</v>
@@ -3308,7 +3302,7 @@
         <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>113</v>
@@ -3322,7 +3316,7 @@
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>7</v>
@@ -3334,7 +3328,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>113</v>
@@ -3348,7 +3342,7 @@
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>19</v>
@@ -3360,7 +3354,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>113</v>
@@ -3374,7 +3368,7 @@
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -3386,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>113</v>
@@ -3400,7 +3394,7 @@
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
@@ -3412,7 +3406,7 @@
         <v>89</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>113</v>
@@ -3426,7 +3420,7 @@
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>19</v>
@@ -3438,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>113</v>
@@ -3452,7 +3446,7 @@
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>7</v>
@@ -3464,7 +3458,7 @@
         <v>92</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>113</v>
@@ -3478,7 +3472,7 @@
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
@@ -3490,7 +3484,7 @@
         <v>94</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>113</v>
@@ -3504,7 +3498,7 @@
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>19</v>
@@ -3516,7 +3510,7 @@
         <v>96</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>113</v>
@@ -3530,7 +3524,7 @@
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>7</v>
@@ -3542,7 +3536,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>113</v>
@@ -3556,7 +3550,7 @@
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>19</v>
@@ -3568,7 +3562,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>113</v>
@@ -3582,7 +3576,7 @@
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>19</v>
@@ -3594,7 +3588,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>113</v>
@@ -3608,7 +3602,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>19</v>
@@ -3620,10 +3614,10 @@
         <v>102</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>103</v>
@@ -3634,7 +3628,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>19</v>
@@ -3646,7 +3640,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>113</v>
@@ -3660,7 +3654,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>19</v>
@@ -3672,7 +3666,7 @@
         <v>106</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>107</v>
@@ -3686,7 +3680,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>19</v>
@@ -3698,7 +3692,7 @@
         <v>108</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>113</v>
@@ -3712,7 +3706,7 @@
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
@@ -3724,7 +3718,7 @@
         <v>110</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>113</v>
@@ -3738,7 +3732,7 @@
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>19</v>
@@ -3750,7 +3744,7 @@
         <v>112</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>113</v>
@@ -3762,7 +3756,7 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>7</v>
@@ -3772,7 +3766,7 @@
         <v>114</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>113</v>
@@ -3782,7 +3776,7 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>19</v>
@@ -3794,7 +3788,7 @@
         <v>116</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>113</v>
@@ -3806,7 +3800,7 @@
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>19</v>
@@ -3818,7 +3812,7 @@
         <v>118</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>113</v>
@@ -3830,7 +3824,7 @@
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>19</v>
@@ -3842,7 +3836,7 @@
         <v>119</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>113</v>
@@ -3854,7 +3848,7 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>7</v>
@@ -3866,7 +3860,7 @@
         <v>120</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>113</v>
@@ -3880,7 +3874,7 @@
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>19</v>
@@ -3895,7 +3889,7 @@
         <v>143</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>124</v>
@@ -3906,7 +3900,7 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>19</v>
@@ -3921,7 +3915,7 @@
         <v>143</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>126</v>
@@ -3932,7 +3926,7 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>19</v>
@@ -3947,7 +3941,7 @@
         <v>143</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>128</v>
@@ -3958,7 +3952,7 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>19</v>
@@ -3970,7 +3964,7 @@
         <v>129</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>113</v>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>19</v>
@@ -3996,7 +3990,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>113</v>
@@ -4010,7 +4004,7 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>19</v>
@@ -4022,7 +4016,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>113</v>
@@ -4036,7 +4030,7 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>19</v>
@@ -4048,7 +4042,7 @@
         <v>133</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>113</v>
@@ -4062,7 +4056,7 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>19</v>
@@ -4074,7 +4068,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>113</v>
@@ -4088,7 +4082,7 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>19</v>
@@ -4100,7 +4094,7 @@
         <v>135</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>113</v>
@@ -4114,7 +4108,7 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>19</v>
@@ -4129,7 +4123,7 @@
         <v>143</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>139</v>
@@ -4140,7 +4134,7 @@
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>19</v>
@@ -4149,13 +4143,13 @@
         <v>137</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H81" s="24">
         <v>40</v>
@@ -4163,7 +4157,7 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>19</v>
@@ -4172,16 +4166,16 @@
         <v>101</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H82" s="25">
         <v>40</v>
@@ -4189,7 +4183,7 @@
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>19</v>
@@ -4198,16 +4192,16 @@
         <v>101</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H83" s="17">
         <v>40</v>
@@ -4215,7 +4209,7 @@
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>19</v>
@@ -4224,16 +4218,16 @@
         <v>101</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>113</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H84" s="17">
         <v>40</v>
@@ -4254,10 +4248,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4291,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>140</v>
@@ -4311,7 +4306,7 @@
         <v>143</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>81</v>
@@ -4322,7 +4317,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>140</v>
@@ -4337,7 +4332,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>81</v>
@@ -4346,9 +4341,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>140</v>
@@ -4372,9 +4367,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>140</v>
@@ -4398,9 +4393,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>140</v>
@@ -4412,7 +4407,7 @@
         <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>113</v>
@@ -4424,9 +4419,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>140</v>
@@ -4450,9 +4445,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>140</v>
@@ -4464,7 +4459,7 @@
         <v>153</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>113</v>
@@ -4476,9 +4471,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>140</v>
@@ -4490,7 +4485,7 @@
         <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>113</v>
@@ -4502,9 +4497,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>140</v>
@@ -4516,7 +4511,7 @@
         <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>113</v>
@@ -4528,9 +4523,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>140</v>
@@ -4542,7 +4537,7 @@
         <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>113</v>
@@ -4554,9 +4549,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>140</v>
@@ -4568,7 +4563,7 @@
         <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>113</v>
@@ -4580,9 +4575,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
@@ -4594,7 +4589,7 @@
         <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>113</v>
@@ -4606,9 +4601,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>140</v>
@@ -4620,7 +4615,7 @@
         <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>113</v>
@@ -4632,9 +4627,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>160</v>
@@ -4658,9 +4653,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>160</v>
@@ -4684,9 +4679,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -4698,7 +4693,7 @@
         <v>165</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>113</v>
@@ -4710,9 +4705,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -4724,7 +4719,7 @@
         <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>113</v>
@@ -4736,9 +4731,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -4750,7 +4745,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>113</v>
@@ -4762,9 +4757,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>160</v>
@@ -4776,7 +4771,7 @@
         <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>113</v>
@@ -4788,9 +4783,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>160</v>
@@ -4802,7 +4797,7 @@
         <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>113</v>
@@ -4814,9 +4809,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>160</v>
@@ -4828,7 +4823,7 @@
         <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>113</v>
@@ -4840,9 +4835,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -4854,7 +4849,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>113</v>
@@ -4866,9 +4861,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>140</v>
@@ -4880,7 +4875,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>113</v>
@@ -4892,9 +4887,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>179</v>
@@ -4906,7 +4901,7 @@
         <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>113</v>
@@ -4918,9 +4913,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -4932,7 +4927,7 @@
         <v>182</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>113</v>
@@ -4944,9 +4939,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>160</v>
@@ -4958,7 +4953,7 @@
         <v>183</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>113</v>
@@ -4970,9 +4965,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -4984,7 +4979,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>113</v>
@@ -4996,9 +4991,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>140</v>
@@ -5010,7 +5005,7 @@
         <v>187</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>113</v>
@@ -5022,9 +5017,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>140</v>
@@ -5036,7 +5031,7 @@
         <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>113</v>
@@ -5048,9 +5043,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>189</v>
@@ -5062,7 +5057,7 @@
         <v>191</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>113</v>
@@ -5074,9 +5069,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>140</v>
@@ -5088,7 +5083,7 @@
         <v>193</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>151</v>
@@ -5100,9 +5095,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>140</v>
@@ -5114,7 +5109,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>113</v>
@@ -5126,9 +5121,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
@@ -5140,7 +5135,7 @@
         <v>196</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>113</v>
@@ -5152,9 +5147,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
@@ -5166,7 +5161,7 @@
         <v>197</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>113</v>
@@ -5178,9 +5173,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>160</v>
@@ -5192,7 +5187,7 @@
         <v>199</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>113</v>
@@ -5204,9 +5199,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>200</v>
@@ -5218,7 +5213,7 @@
         <v>202</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>113</v>
@@ -5230,9 +5225,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>200</v>
@@ -5244,7 +5239,7 @@
         <v>203</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>113</v>
@@ -5256,9 +5251,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
@@ -5270,7 +5265,7 @@
         <v>205</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>113</v>
@@ -5282,9 +5277,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>200</v>
@@ -5296,7 +5291,7 @@
         <v>207</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>113</v>
@@ -5308,9 +5303,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>160</v>
@@ -5322,7 +5317,7 @@
         <v>191</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>113</v>
@@ -5334,9 +5329,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
@@ -5348,7 +5343,7 @@
         <v>209</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>113</v>
@@ -5360,9 +5355,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
@@ -5374,7 +5369,7 @@
         <v>211</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>113</v>
@@ -5387,7 +5382,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43"/>
+  <autoFilter ref="A1:H43">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="6°to Piso"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5849,16 +5850,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>200</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>121</v>
@@ -5870,16 +5871,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>200</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>121</v>
@@ -5891,14 +5892,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>121</v>
@@ -5910,16 +5911,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>200</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>121</v>
@@ -5931,16 +5932,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>121</v>
@@ -5949,21 +5950,21 @@
         <v>113</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>200</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>121</v>
@@ -5972,21 +5973,21 @@
         <v>113</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>409</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>411</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>121</v>
@@ -5998,16 +5999,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>409</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>411</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>121</v>
@@ -6019,16 +6020,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>121</v>
@@ -6054,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,9 +6070,9 @@
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6092,9 +6093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>140</v>
@@ -6106,18 +6107,18 @@
         <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>140</v>
@@ -6126,21 +6127,21 @@
         <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>140</v>
@@ -6149,21 +6150,21 @@
         <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>140</v>
@@ -6172,21 +6173,21 @@
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>140</v>
@@ -6195,21 +6196,21 @@
         <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>140</v>
@@ -6218,21 +6219,21 @@
         <v>239</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>140</v>
@@ -6241,21 +6242,21 @@
         <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>140</v>
@@ -6264,21 +6265,21 @@
         <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>140</v>
@@ -6287,21 +6288,21 @@
         <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>140</v>
@@ -6310,21 +6311,21 @@
         <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>140</v>
@@ -6333,21 +6334,21 @@
         <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>140</v>
@@ -6356,16 +6357,16 @@
         <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6380,7 +6381,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -6397,7 +6398,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -6420,19 +6421,19 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>149</v>
@@ -6443,19 +6444,19 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>149</v>
@@ -6466,19 +6467,19 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>149</v>
@@ -6489,19 +6490,19 @@
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>149</v>
@@ -6512,19 +6513,19 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>149</v>
@@ -6535,19 +6536,19 @@
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>149</v>
@@ -6558,19 +6559,19 @@
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>149</v>
@@ -6581,19 +6582,19 @@
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>149</v>
@@ -6604,22 +6605,22 @@
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
@@ -6627,22 +6628,22 @@
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -6650,22 +6651,22 @@
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>10</v>
@@ -6673,22 +6674,22 @@
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -6696,19 +6697,19 @@
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>149</v>
@@ -6719,19 +6720,19 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>149</v>
@@ -6742,19 +6743,19 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>149</v>
@@ -6765,19 +6766,19 @@
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>149</v>
@@ -6788,19 +6789,19 @@
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>149</v>
@@ -6811,19 +6812,19 @@
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>149</v>
@@ -6834,19 +6835,19 @@
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>149</v>
@@ -6857,19 +6858,19 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>149</v>
@@ -6880,19 +6881,19 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>149</v>
@@ -6903,19 +6904,19 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>149</v>
@@ -6926,19 +6927,19 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>149</v>
@@ -6949,19 +6950,19 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>149</v>
@@ -6972,19 +6973,19 @@
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>149</v>
@@ -6995,19 +6996,19 @@
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>149</v>
@@ -7018,19 +7019,19 @@
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>149</v>
@@ -7041,19 +7042,19 @@
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>149</v>
@@ -7064,19 +7065,19 @@
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>149</v>
@@ -7087,19 +7088,19 @@
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>149</v>
@@ -7110,19 +7111,19 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>149</v>
@@ -7133,19 +7134,19 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>149</v>
@@ -7156,19 +7157,19 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>149</v>
@@ -7179,19 +7180,19 @@
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>149</v>
@@ -7202,19 +7203,19 @@
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>149</v>
@@ -7225,19 +7226,19 @@
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>149</v>
@@ -7248,19 +7249,19 @@
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>149</v>
@@ -7271,19 +7272,19 @@
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>149</v>
@@ -7294,19 +7295,19 @@
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>149</v>
@@ -7317,19 +7318,19 @@
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>149</v>
@@ -7340,19 +7341,19 @@
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>149</v>
@@ -7363,19 +7364,19 @@
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>149</v>
@@ -7386,19 +7387,19 @@
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>149</v>
@@ -7409,19 +7410,19 @@
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>149</v>
@@ -7432,19 +7433,19 @@
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>149</v>
@@ -7455,19 +7456,19 @@
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>149</v>
@@ -7478,19 +7479,19 @@
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>149</v>
@@ -7501,19 +7502,19 @@
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>149</v>
@@ -7524,249 +7525,249 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>149</v>
@@ -7777,88 +7778,88 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>149</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>149</v>
@@ -7869,19 +7870,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>149</v>
@@ -7892,19 +7893,19 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>149</v>
@@ -7915,19 +7916,19 @@
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>149</v>
@@ -7938,16 +7939,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>363</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>143</v>
@@ -7959,21 +7960,21 @@
         <v>143</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>143</v>
@@ -7985,21 +7986,21 @@
         <v>143</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>143</v>
@@ -8011,24 +8012,24 @@
         <v>143</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>149</v>
@@ -8039,19 +8040,19 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>149</v>
@@ -8062,19 +8063,19 @@
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>149</v>
@@ -8085,19 +8086,19 @@
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>149</v>
@@ -8108,19 +8109,19 @@
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>149</v>
@@ -8131,19 +8132,19 @@
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F76" s="30" t="s">
         <v>149</v>
@@ -8154,19 +8155,19 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>149</v>
@@ -8177,19 +8178,19 @@
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F78" s="30" t="s">
         <v>149</v>
@@ -8200,19 +8201,19 @@
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>149</v>
@@ -8223,19 +8224,19 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>149</v>
@@ -8246,19 +8247,19 @@
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>149</v>
@@ -8269,19 +8270,19 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F82" s="30" t="s">
         <v>149</v>
@@ -8292,19 +8293,19 @@
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>149</v>
@@ -8315,19 +8316,19 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>149</v>
@@ -8338,19 +8339,19 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>149</v>
@@ -8361,19 +8362,19 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>149</v>
@@ -8384,19 +8385,19 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>149</v>
@@ -8407,19 +8408,19 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>149</v>
@@ -8430,71 +8431,71 @@
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C89" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="D89" s="33" t="s">
-        <v>388</v>
-      </c>
       <c r="E89" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>149</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H90">
         <v>467537</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F91" s="37" t="s">
         <v>149</v>
@@ -8521,6 +8522,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2A1AE458063C741842AB8EBBE581ED2" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6990e09a7d95d09e232da40966901d8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c32e03e6-ef0c-4686-b9d5-20fc79c6df97" xmlns:ns3="99002f19-2ef4-4d9e-9452-8bd5a4ecb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bb373c89002af6c0dcfca5685bb9bb1" ns2:_="" ns3:_="">
     <xsd:import namespace="c32e03e6-ef0c-4686-b9d5-20fc79c6df97"/>
@@ -8691,15 +8701,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ACA940-7138-4FD9-888D-FD41E01D8622}">
   <ds:schemaRefs>
@@ -8710,6 +8711,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85789E10-5C9A-4B83-9401-5ECFE6D45DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8726,12 +8735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7B3613-1A3F-4F83-A282-7F0627AC1F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/stockcau/inventariot4.xlsx
+++ b/stockcau/inventariot4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Pantallas" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="554">
   <si>
     <t>MARCA</t>
   </si>
@@ -1315,13 +1315,406 @@
   </si>
   <si>
     <t>Pantalla</t>
+  </si>
+  <si>
+    <t>400UXN3</t>
+  </si>
+  <si>
+    <t>RETIRADO</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00106K</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA0012F</t>
+  </si>
+  <si>
+    <t>Z621HCJC900039K</t>
+  </si>
+  <si>
+    <t>Z621HCJC900023L</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>p2419h</t>
+  </si>
+  <si>
+    <t>6xh42q2</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>Sin stand</t>
+  </si>
+  <si>
+    <t>p2417h</t>
+  </si>
+  <si>
+    <t>2rt6bj2</t>
+  </si>
+  <si>
+    <t>1XFGJQ2</t>
+  </si>
+  <si>
+    <t>5SJG452</t>
+  </si>
+  <si>
+    <t>6D452Q2</t>
+  </si>
+  <si>
+    <t>hdd</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WD3000JS'00PDB0</t>
+  </si>
+  <si>
+    <t>WCAPD4517919</t>
+  </si>
+  <si>
+    <t>CAJA SCRAP 6</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>DESKSTAR</t>
+  </si>
+  <si>
+    <t>C1CPGYWL</t>
+  </si>
+  <si>
+    <t>WD800JD'60LSA5</t>
+  </si>
+  <si>
+    <t>2A83303AGTU4FD</t>
+  </si>
+  <si>
+    <t>MAXTOR</t>
+  </si>
+  <si>
+    <t>DIAMONDMAX STM3160215A</t>
+  </si>
+  <si>
+    <t>9RAAC96M</t>
+  </si>
+  <si>
+    <t>CUBIC</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>GENERICO (5)</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>GENERICO</t>
+  </si>
+  <si>
+    <t>LECTOR</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>DS9208</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>GABINETE VACIO</t>
+  </si>
+  <si>
+    <t>4 hdd sin tapa</t>
+  </si>
+  <si>
+    <t>Caja #3</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+  </si>
+  <si>
+    <t>Barracuda 1 TB</t>
+  </si>
+  <si>
+    <t>Z9AH1JDR</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Teclado x5</t>
+  </si>
+  <si>
+    <t>Baterias</t>
+  </si>
+  <si>
+    <t>Baterias hinchadas x9</t>
+  </si>
+  <si>
+    <t>Linterna</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Fuentes UXN x9</t>
+  </si>
+  <si>
+    <t>motherboard</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>vj4yx</t>
+  </si>
+  <si>
+    <t>Mother UXN</t>
+  </si>
+  <si>
+    <t>KR40BN9404291ZSM85BAI0011</t>
+  </si>
+  <si>
+    <t>Z621HCJC900028Y</t>
+  </si>
+  <si>
+    <t>CHAPA SUELTA</t>
+  </si>
+  <si>
+    <t>Z621HCJC600052V</t>
+  </si>
+  <si>
+    <t>flatron L1752s-sf</t>
+  </si>
+  <si>
+    <t>en caja de monitores</t>
+  </si>
+  <si>
+    <t>Optiplex 3060 SFF</t>
+  </si>
+  <si>
+    <t>1v95fx2</t>
+  </si>
+  <si>
+    <t>Recate CPU i5 8500t</t>
+  </si>
+  <si>
+    <t>89f33w2</t>
+  </si>
+  <si>
+    <t>Recate CPU i5 8400t</t>
+  </si>
+  <si>
+    <t>1vc2fx2</t>
+  </si>
+  <si>
+    <t>Optiplex 3050 SFF</t>
+  </si>
+  <si>
+    <t>FFYW7M2</t>
+  </si>
+  <si>
+    <t>Rescate CPU I5 7500t</t>
+  </si>
+  <si>
+    <t>89J63W2</t>
+  </si>
+  <si>
+    <t>Bateria Hinchada</t>
+  </si>
+  <si>
+    <t>42wl10ms</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00212F</t>
+  </si>
+  <si>
+    <t>Z621HCJC900038B</t>
+  </si>
+  <si>
+    <t>Celulares</t>
+  </si>
+  <si>
+    <t>CYRUS/CAT</t>
+  </si>
+  <si>
+    <t>CM17/S31</t>
+  </si>
+  <si>
+    <t>27 equipos</t>
+  </si>
+  <si>
+    <t>Caja #6</t>
+  </si>
+  <si>
+    <t>m4123ccba</t>
+  </si>
+  <si>
+    <t>BRG019FCKT</t>
+  </si>
+  <si>
+    <t>003KCWC6C969</t>
+  </si>
+  <si>
+    <t>LH32HBSLBCZB</t>
+  </si>
+  <si>
+    <t>ZU4SH1HBA00075K</t>
+  </si>
+  <si>
+    <t>SCZBLH40MECALGCSZB</t>
+  </si>
+  <si>
+    <t>027KH9XF900764Z</t>
+  </si>
+  <si>
+    <t>804KCBDM2397</t>
+  </si>
+  <si>
+    <t>320MXN-3</t>
+  </si>
+  <si>
+    <t>Z4U7HCJC100027X</t>
+  </si>
+  <si>
+    <t>Z4U7HCJC700059K</t>
+  </si>
+  <si>
+    <t>Z63DHCJC700040M</t>
+  </si>
+  <si>
+    <t>LS40BHZNB/XBG</t>
+  </si>
+  <si>
+    <t>BH40HVUQ700204P</t>
+  </si>
+  <si>
+    <t>FLATRON M4224CCBA</t>
+  </si>
+  <si>
+    <t>006KCDG9T274</t>
+  </si>
+  <si>
+    <t>027KH9XF700778L</t>
+  </si>
+  <si>
+    <t>Z63DHCJC700046K</t>
+  </si>
+  <si>
+    <t>ME32C</t>
+  </si>
+  <si>
+    <t>Z6XNHCJF700224A</t>
+  </si>
+  <si>
+    <t>027KH9XF900780R</t>
+  </si>
+  <si>
+    <t>027KKH9XF900120E</t>
+  </si>
+  <si>
+    <t>027KH9XF900300E</t>
+  </si>
+  <si>
+    <t>027KH9XF900117B</t>
+  </si>
+  <si>
+    <t>Z621HCJC900041E</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00206L</t>
+  </si>
+  <si>
+    <t>ZU41H1JBA00118B</t>
+  </si>
+  <si>
+    <t>Z621HCJC600067T</t>
+  </si>
+  <si>
+    <t>006KCZP9T269</t>
+  </si>
+  <si>
+    <t>Z4U7HCJC100045T</t>
+  </si>
+  <si>
+    <t>Z4U7HCJD100032R</t>
+  </si>
+  <si>
+    <t>027KH9XF700420Z</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>IMAC</t>
+  </si>
+  <si>
+    <t>C02KF0EJDNCT</t>
+  </si>
+  <si>
+    <t>ASSY HEATSINK P</t>
+  </si>
+  <si>
+    <t>CN40BN9405258FBDOEC4Q0033</t>
+  </si>
+  <si>
+    <t>CN40BN9405258FBDOEC8E0071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUSE </t>
+  </si>
+  <si>
+    <t>MS116T</t>
+  </si>
+  <si>
+    <t>CN0DV0RHLO3007840DAS</t>
+  </si>
+  <si>
+    <t>LOGITECH</t>
+  </si>
+  <si>
+    <t>Mbt58</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GK-100012CP/T</t>
+  </si>
+  <si>
+    <t>WV13TR8A2675</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,8 +1795,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,8 +1881,25 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1625,12 +2042,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1748,12 +2215,85 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2050,12 +2590,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2304,7 +2844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>422</v>
       </c>
@@ -2330,7 +2870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>422</v>
       </c>
@@ -2356,7 +2896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>422</v>
       </c>
@@ -2382,7 +2922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>422</v>
       </c>
@@ -2408,7 +2948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>422</v>
       </c>
@@ -2434,7 +2974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>422</v>
       </c>
@@ -2460,7 +3000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>422</v>
       </c>
@@ -2486,7 +3026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>422</v>
       </c>
@@ -2512,7 +3052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>422</v>
       </c>
@@ -2538,7 +3078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>422</v>
       </c>
@@ -2564,7 +3104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>422</v>
       </c>
@@ -2590,7 +3130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>422</v>
       </c>
@@ -2616,7 +3156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>422</v>
       </c>
@@ -2642,7 +3182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>422</v>
       </c>
@@ -2668,7 +3208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>422</v>
       </c>
@@ -2694,7 +3234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>422</v>
       </c>
@@ -2720,7 +3260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>422</v>
       </c>
@@ -2746,7 +3286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>422</v>
       </c>
@@ -2772,7 +3312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>422</v>
       </c>
@@ -2798,7 +3338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>422</v>
       </c>
@@ -2824,7 +3364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>422</v>
       </c>
@@ -2850,7 +3390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>422</v>
       </c>
@@ -2876,7 +3416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>422</v>
       </c>
@@ -2902,7 +3442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>422</v>
       </c>
@@ -2928,7 +3468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>422</v>
       </c>
@@ -2954,7 +3494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>422</v>
       </c>
@@ -2980,7 +3520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>422</v>
       </c>
@@ -3006,7 +3546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>422</v>
       </c>
@@ -3032,7 +3572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>422</v>
       </c>
@@ -3058,7 +3598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>422</v>
       </c>
@@ -3084,7 +3624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>422</v>
       </c>
@@ -3110,7 +3650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>422</v>
       </c>
@@ -3136,7 +3676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>422</v>
       </c>
@@ -3162,7 +3702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>422</v>
       </c>
@@ -3188,7 +3728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>422</v>
       </c>
@@ -3214,7 +3754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>422</v>
       </c>
@@ -3240,7 +3780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>422</v>
       </c>
@@ -3264,7 +3804,7 @@
       </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>422</v>
       </c>
@@ -3288,7 +3828,7 @@
       </c>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>422</v>
       </c>
@@ -3314,7 +3854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>422</v>
       </c>
@@ -3340,7 +3880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>422</v>
       </c>
@@ -3366,7 +3906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>422</v>
       </c>
@@ -3392,7 +3932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>422</v>
       </c>
@@ -3418,7 +3958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>422</v>
       </c>
@@ -3444,7 +3984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>422</v>
       </c>
@@ -3470,7 +4010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>422</v>
       </c>
@@ -3496,7 +4036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>422</v>
       </c>
@@ -3522,7 +4062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>422</v>
       </c>
@@ -3548,7 +4088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>422</v>
       </c>
@@ -3574,7 +4114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>422</v>
       </c>
@@ -3600,7 +4140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>422</v>
       </c>
@@ -3626,7 +4166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>422</v>
       </c>
@@ -3652,7 +4192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>422</v>
       </c>
@@ -3678,7 +4218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>422</v>
       </c>
@@ -3704,7 +4244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>422</v>
       </c>
@@ -3730,7 +4270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>422</v>
       </c>
@@ -3754,7 +4294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>422</v>
       </c>
@@ -3774,7 +4314,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>422</v>
       </c>
@@ -3798,7 +4338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>422</v>
       </c>
@@ -3822,7 +4362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>422</v>
       </c>
@@ -3846,7 +4386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>422</v>
       </c>
@@ -3872,7 +4412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>422</v>
       </c>
@@ -3898,7 +4438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>422</v>
       </c>
@@ -3924,7 +4464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>422</v>
       </c>
@@ -3950,7 +4490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>422</v>
       </c>
@@ -3976,7 +4516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>422</v>
       </c>
@@ -4002,7 +4542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>422</v>
       </c>
@@ -4028,7 +4568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>422</v>
       </c>
@@ -4054,7 +4594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>422</v>
       </c>
@@ -4080,7 +4620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>422</v>
       </c>
@@ -4106,7 +4646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>422</v>
       </c>
@@ -4132,7 +4672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>422</v>
       </c>
@@ -4155,7 +4695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>422</v>
       </c>
@@ -4181,7 +4721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>422</v>
       </c>
@@ -4207,7 +4747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>422</v>
       </c>
@@ -4234,13 +4774,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H84">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Nuevo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H84"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5395,10 +5929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,7 +5941,7 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -5449,11 +5983,11 @@
       <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>113</v>
+      <c r="E2" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>216</v>
@@ -5475,11 +6009,11 @@
       <c r="D3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
+      <c r="E3" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>216</v>
@@ -5501,11 +6035,11 @@
       <c r="D4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>113</v>
+      <c r="E4" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>216</v>
@@ -5527,11 +6061,11 @@
       <c r="D5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>113</v>
+      <c r="E5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>216</v>
@@ -5553,11 +6087,11 @@
       <c r="D6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>113</v>
+      <c r="E6" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>216</v>
@@ -5579,11 +6113,11 @@
       <c r="D7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
+      <c r="E7" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>222</v>
@@ -5605,11 +6139,11 @@
       <c r="D8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>113</v>
+      <c r="E8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>225</v>
@@ -5631,11 +6165,11 @@
       <c r="D9" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>113</v>
+      <c r="E9" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>216</v>
@@ -5657,11 +6191,11 @@
       <c r="D10" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>113</v>
+      <c r="E10" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>216</v>
@@ -5683,11 +6217,11 @@
       <c r="D11" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>113</v>
+      <c r="E11" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>216</v>
@@ -5709,11 +6243,11 @@
       <c r="D12" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>113</v>
+      <c r="E12" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>216</v>
@@ -5735,11 +6269,11 @@
       <c r="D13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>113</v>
+      <c r="E13" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>216</v>
@@ -5761,11 +6295,11 @@
       <c r="D14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>113</v>
+      <c r="E14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>216</v>
@@ -5787,11 +6321,11 @@
       <c r="D15" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>113</v>
+      <c r="E15" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>216</v>
@@ -5813,11 +6347,11 @@
       <c r="D16" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>113</v>
+      <c r="E16" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>225</v>
@@ -5839,9 +6373,11 @@
       <c r="D17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>113</v>
+      <c r="E17" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>424</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3">
@@ -6039,13 +6575,2223 @@
       </c>
       <c r="H26" s="42"/>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="H36" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H39" s="53"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H47" s="53"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H50" s="53"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D52" s="57">
+        <v>17118010501743</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" s="53"/>
+      <c r="E54" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H54" s="53"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H55" s="53"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H57" s="53"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H59" s="53"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H60" s="53"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="H62" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="H63" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="H64" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H65" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="H66" s="53"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="H68" s="53"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>496</v>
+      </c>
+      <c r="H69" s="53"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="H70" s="53"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G73" s="60"/>
+      <c r="H73" s="53"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H74" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H75" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H76" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="H77" s="53"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="58"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>508</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H80" s="58"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H81" s="53"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H82" s="53"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H83" s="53"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="E84" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G84" s="61"/>
+      <c r="H84" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G85" s="61"/>
+      <c r="H85" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G86" s="61"/>
+      <c r="H86" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G87" s="61"/>
+      <c r="H87" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G88" s="61"/>
+      <c r="H88" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G89" s="61"/>
+      <c r="H89" s="44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G90" s="61"/>
+      <c r="H90" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G91" s="61"/>
+      <c r="H91" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G92" s="60"/>
+      <c r="H92" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G93" s="60"/>
+      <c r="H93" s="44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="E94" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G94" s="60"/>
+      <c r="H94" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="D95" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G95" s="60"/>
+      <c r="H95" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="E96" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G96" s="60"/>
+      <c r="H96" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G97" s="60"/>
+      <c r="H97" s="44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G98" s="60"/>
+      <c r="H98" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F99" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G99" s="60"/>
+      <c r="H99" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100" s="60"/>
+      <c r="H100" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F101" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G101" s="60"/>
+      <c r="H101" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E102" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G102" s="60"/>
+      <c r="H102" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G103" s="60"/>
+      <c r="H103" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="60"/>
+      <c r="H104" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G105" s="60"/>
+      <c r="H105" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G106" s="60"/>
+      <c r="H106" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G107" s="60"/>
+      <c r="H107" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G108" s="60"/>
+      <c r="H108" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="E109" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G109" s="60"/>
+      <c r="H109" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G110" s="60"/>
+      <c r="H110" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="D111" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="H111" s="53"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G112" s="60"/>
+      <c r="H112" s="53"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G113" s="60"/>
+      <c r="H113" s="53"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C114" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G114" s="60"/>
+      <c r="H114" s="53"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="B115" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="D115" s="63">
+        <v>8311161000</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G115" s="60"/>
+      <c r="H115" s="53"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B116" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G116" s="60"/>
+      <c r="H116" s="53"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="B117" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="C117" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="D117" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="E117" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="G117" s="68"/>
+      <c r="H117" s="66"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G16"/>
-  <conditionalFormatting sqref="E18:E24 C18:C24 E26 C26">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="C18:C24 C26 E2:E24 E26:E117">
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 C25">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112:D117 D73:D110 D27:D69">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D72">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6055,7 +8801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
